--- a/data_extraction/data_csvs/leito_acids.xlsx
+++ b/data_extraction/data_csvs/leito_acids.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u6676643/codes/data_extraction/data_csvs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFE5BEC3-7B15-A54F-8A1B-0B13C95BC9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D105F0-B7FA-B947-A1A5-46951FF37B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23460" yWindow="9640" windowWidth="27240" windowHeight="16440" xr2:uid="{450D2931-E50E-2747-8D17-0D16C680CFEB}"/>
+    <workbookView xWindow="20180" yWindow="5740" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{450D2931-E50E-2747-8D17-0D16C680CFEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="756">
   <si>
     <t>108-95-2</t>
   </si>
@@ -9950,13 +9951,568 @@
   </si>
   <si>
     <t>https://analytical.chem.ut.ee/databases/pka-values-acids/</t>
+  </si>
+  <si>
+    <t>OC1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>CC1=C(C(=C(C(=C1C(F)(F)F)C(F)(F)F)C(F)(F)F)C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C2C3=C(C=CC=C3)C4=C2C=CC=C4)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>CC1=C(F)C(=C(C(C#N)C2=CC=CC=C2)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=CC(=CC=C1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>NC1=C(F)C(=C(NC2=C(F)C(=C(F)C(=C2F)F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C(C#N)C2=CC=CC=C2)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=CC=C(C=C1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CN(C)C1=C(F)C(=C(NC2=C(F)C(=C(F)C(=C2F)F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>CC1=C(F)C(=C(NC2=C(F)C(=C(F)C(=C2F)F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(C=CC=C1)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)N(C1=C(C(=C(C=C1)C(F)(F)F)C(F)(F)F)C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C2=C(C(=C1F)F)C3=C(F)C(=C(F)C(=C3C2)F)F</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C(=C1)C3C4=CC=CC=C4C5=CC=CC2=C35</t>
+  </si>
+  <si>
+    <t>OC1=CC(=CC(=C1)C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>COC(=O)C1C2=C(C=CC=C2)C3=C1C=CC=C3</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C(=O)OCC)C1=C(F)C(=C(F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(C=CC=C1)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>CC1=C(F)C(=C(C(C#N)C2=C(F)C(=C(C)C(=C2F)F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC(C1=C(F)C(=C(F)C(=C1F)F)F)(C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>OC1(C2=C(F)C(=C(F)C(=C2F)F)F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C1(F)F</t>
+  </si>
+  <si>
+    <t>CC1=C(F)C(=C([C@@H](C#N)C2=C(F)C(=C(F)C(=C2F)F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC(=O)C1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>N#CC1C2=C(C=CC=C2)C3=C1C=CC=C3</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(F)C(=C1)F)C(C#N)C2=C(F)C(=C(F)C(=C2F)F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C(C#N)C2=C(F)C(=C(F)C(=C2F)F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C(C#N)C2=C(F)C(=C(Cl)C(=C2F)F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(Br)C=C(Br)C=C1Br</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C(C#N)C2=C(Cl)C(=C(Cl)C(=C2Cl)F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(F)C(=CC(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(F)C(=C(F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C(C#N)C2=C(F)C3=C(F)C(=C(F)C(=C3C(=C2F)F)F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=C2C(=C(F)C(=C(F)C2=C(F)C(=C1F)F)F)F</t>
+  </si>
+  <si>
+    <t>NC1=C(C=C(C=C1[S](F)(=O)=O)[S](F)(=O)=O)[S](F)(=O)=O</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C2=C(F)C(=C(C(C#N)C3=C(F)C4=C(F)C(=C(F)C(=C4C(=C3F)F)F)F)C(=C2C(=C1F)F)F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C2C3=C(C(=C(F)C(=C3F)F)F)C4=C2C(=C(F)C(=C4F)F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(F)C2=C(F)C(=C(F)C(=C2C(=C1F)F)F)F</t>
+  </si>
+  <si>
+    <t>OC12C(F)(F)C3(F)C(F)(F)C(F)(C1(F)F)C(F)(F)C(F)(C2(F)F)C3(F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C(C#N)C2=CC=C(C=C2)C(F)(F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(F)C(=C(C(=C1F)F)C2=C(F)C(=C(F)C(=C2F)F)F)F</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C#N)C1=C(F)C(=CC(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(Cl)C(=C(Cl)C(=C1Cl)Cl)Cl</t>
+  </si>
+  <si>
+    <t>OC1=C(Br)C(=C(Br)C(=C1Br)Br)Br</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C#N)C1=C(F)C(=C(F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>CC1=CC=C(C=C1)C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C#N)C1=C(F)C2=C(F)C(=C(F)C(=C2C(=C1F)F)F)F</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C#N)C1=C(F)C(=C(Cl)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(C=C(C=C1)[N+]([O-])=O)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>OC1=C(F)C(=C(C(=C1F)F)C(F)(F)F)F</t>
+  </si>
+  <si>
+    <t>FC1=NC(=C(F)C(=C1F)C(C#N)C2=C(F)C(=C(F)C(=C2F)F)F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(F)C(=C1C(C#N)C2=C(F)C(=C(C(=C2F)F)C(F)(F)F)F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C#N)C1=C(F)C(=C(C(=C1F)F)C(F)(F)F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(F)C(=N1)F)C(C#N)C2=C(F)C3=C(F)C(=C(F)C(=C3C(=C2F)F)F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(F)C(=NC(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C#N)C1=C(F)C(=NC(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C1=CC(=CC=C1)C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>O=C1N[S](=O)(=O)C2=C1C=CC=C2</t>
+  </si>
+  <si>
+    <t>O[P]1(=O)OC2=C(C3=C(CCCC3)C=C2C4C=C5C=CC=CC5=C6C=CC=CC46)C7=C(O1)C(=CC8=C7CCCC8)C9=C%10C=CC=CC%10=C%11C=CC=CC%11=C9</t>
+  </si>
+  <si>
+    <t>O[P]1(=O)OC2=C3C=C(C=C2C4=CC(=CC(=C4)C5=CC=CC=C5)C6CC=CC=C6)[C]78=C9C%10=C%11[C-]7[Fe++]89%10%11%12%13%14%15[C-]%16C%12=C%13C%14=[C]%15%16C%17=CC3=C(O1)C(=C%17)C%18=CC(=CC(=C%18)C%19=CC=CC=C%19)C%20=CC=CC=C%20</t>
+  </si>
+  <si>
+    <t>CC1=C(F)C(=C(C(C#N)C#N)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>CC(C)C1=CC(=C(C(=C1)C(C)C)C2=CC3=CC=CC=C3C4=C2O[P](O)(=O)OC5=C4C6=CC=CC=C6C=C5C7=C(C=C(C=C7C(C)C)C(C)C)C(C)C)C(C)C</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(F)C(=N1)F)C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>O[P]1(=O)OC2=C3C=C(C=C2C4=CC(=CC(=C4)C5=CC=CC=C5)C6CC=CC=C6)C7=CC=CC8=C9C=CC=C(C%10=CC3=C(O1)C(=C%10)C%11=CC(=CC(=C%11)C%12=CC=CC=C%12)C%13=CC=CC=C%13)C9=C78</t>
+  </si>
+  <si>
+    <t>O[P]1(=O)OC2=C(C3=CC=CC=C3C=C2C4=CC5=CC=CC=C5C6=CC=CC=C46)C7=C(O1)C(=CC8=CC=CC=C78)C9=CC%10=CC=CC=C%10C%11=CC=CC=C9%11</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C(C#N)C#N)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(F)C(=C1)F)C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>O[P]1(=O)OC2=C(C3=CC=CC=C3C=C2C4=CC=CC=C4)C5=C(O1)C(=CC6=CC=CC=C56)C7=CC=CC=C7</t>
+  </si>
+  <si>
+    <t>O[P]1(=O)OC2=C(C=C3C=CC=CC3=C2C4=C(O1)C(=CC5=CC=CC=C45)C6=CC=C(F)C=C6)C7CC=C(F)C=C7</t>
+  </si>
+  <si>
+    <t>CC1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC=C(C)C=C2</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC=C(C=C1)C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>COC1=CC=C(C=C1)C(=O)N[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CC1=CC=C(C=C1)C(=O)N[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>O=[S](=O)(N[S](=O)(=O)C1=CC=CC=C1)C2=CC=CC=C2</t>
+  </si>
+  <si>
+    <t>CC1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC=C(Cl)C=C2</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)NC(=O)C1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>OC1=C(C=C(C=C1[N+]([O-])=O)[N+]([O-])=O)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>FC1=CC=C(C=C1)C(=O)N[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(C(=C(C(=C1C(F)(F)F)C(F)(F)F)C(F)(F)F)C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C1=C(C(C#N)C#N)C(=C(C(=C1)C(F)(F)F)C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)NC(=O)C1=CC=C(Cl)C=C1</t>
+  </si>
+  <si>
+    <t>ClC1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC=C(Cl)C=C2</t>
+  </si>
+  <si>
+    <t>FC1=C(C(C#N)C#N)C(=C(F)C(=C1F)C(F)(F)F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C1=C(C(=C(C(=C1S)C(F)(F)F)C(F)(F)F)C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CC1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC=C(C=C2)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>CC1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC(=C(Cl)C=C2)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC=C(C=C1)C(=O)N[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC=C(Cl)C=C2</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C1=C(C(=C(C(=C1C(C#N)C#N)C(F)(F)F)C(F)(F)F)C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=C(Cl)C=CC(=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC=C(Cl)C=C2</t>
+  </si>
+  <si>
+    <t>CC1=CC=C(C=C1)[S](O)(=O)=O</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC=C(C=C2)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>OC1=C(C=C(C=C1[S](=O)(=O)OCC(F)(F)CF)[S](=O)(=O)OCC(F)(F)CF)[S](=O)(=O)OCC(F)(F)CF</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC(=CC=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC(=CC=C2)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>OC1=C(C=C(C=C1[S](=O)(=O)OCC(F)(F)F)[S](=O)(=O)OCC(F)(F)F)[S](=O)(=O)OCC(F)(F)F</t>
+  </si>
+  <si>
+    <t>O[S](=O)(=O)C1=C2C=CC=CC2=CC=C1</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC(=CC=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC(=C(Cl)C=C2)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)C(C1=CC=CC=C1)[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC(=C(Cl)C=C2)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C(=C1F)F)[S](=O)(=O)N[S](=O)(=O)C2=CC=C(Cl)C=C2)F</t>
+  </si>
+  <si>
+    <t>O[S](=O)(=O)C1=CC=C(Cl)C=C1</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)N[P]1(=O)OC2=C3C=C(C=C2C4=CC(=CC(=C4)C5=CC=CC=C5)C6CC=CC=C6)[C]78=C9C%10=C%11[C-]7[Fe++]89%10%11%12%13%14%15[C-]%16C%12=C%13C%14=[C]%15%16C%17=CC3=C(O1)C(=C%17)C%18=CC(=CC(=C%18)C%19=CC=CC=C%19)C%20=CC=CC=C%20</t>
+  </si>
+  <si>
+    <t>COC1=CC=C(C=C1)C2=CC3CCCCC3C4=C2O[P](=O)(N[S](=O)(=O)C(F)(F)F)OC5=C(C=C6CCCCC6=C45)C7=CC=C(OC)C=C7</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)C(F)(F)[S](=O)(=O)N[P]1(=O)OC2=C(C3=C(CCCC3)C=C2C4CC=CC=C4)C5=C(O1)C(=CC6=C5CCCC6)C7=CC=CC=C7</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC(=CC=C1)[S](=O)(=O)N[S](=O)(=O)C2=C(F)C(=C(F)C(=C2F)F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)N[P]1(=O)OC2=C(C3=C(CCCC3)C=C2C4CC=CC=C4)C5=C(O1)C(=CC6=C5CCCC6)C7=CC=CC=C7</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(F)(F)C(F)(F)C(F)(F)[S](=O)(=O)N[P]1(=O)OC2=C(C3=C(CCCC3)C=C2C4CC=CC=C4)C5=C(O1)C(=CC6=C5CCCC6)C7=CC=CC=C7</t>
+  </si>
+  <si>
+    <t>O[S](=O)(=O)C1=CC(=CC=C1)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=O)C2=C(F)C(=C(F)C(=C2F)F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)N[P]1(=O)OC2=C3C=C(C=C2C4=CC(=CC(=C4)C5=CC=CC=C5)C6CC=CC=C6)C7=CC=CC8=C9C=CC=C(C%10=CC3=C(O1)C(=C%10)C%11=CC(=CC(=C%11)C%12=CC=CC=C%12)C%13=CC=CC=C%13)C9=C78</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)N[P]1(=O)OC2=C(C=C3C=CC=CC3=C2C4=C(O1)C(=CC5=CC=CC=C45)C6=CC=CC=C6)C7CC=CC=C7</t>
+  </si>
+  <si>
+    <t>COC1=CC=C(C=C1)C2=CC3=C(C=CC=C3)C4=C2O[P](=O)(N[S](=O)(=O)C(F)(F)F)OC5=C4C6=CC=CC=C6C=C5C7=CC=C(OC)C=C7</t>
+  </si>
+  <si>
+    <t>O[S](=O)(=O)C1=CC=C(C=C1)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>FC1=CC=C(C=C1)C2=CC3CCCCC3C4=C2O[P](=O)(N[S](=O)(=O)C(F)(F)F)OC5=C(C=C6CCCCC6=C45)C7=CC=C(F)C=C7</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC(=CC=C1)[S](=O)(=O)C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=C(Cl)C=CC(=C1)[S](=O)(=O)N[S](=O)(=O)C2=C(F)C(=C(F)C(=C2F)F)F</t>
+  </si>
+  <si>
+    <t>COC1=CC=C(C=C1)C(N[S](=O)(=O)C(F)(F)F)=N[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC=C(C=C1)[S](=O)(=O)C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>CC1=CC=C(C=C1)C(N[S](=O)(=O)C(F)(F)F)=N[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>CC1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)NC(=N[S](=O)(=O)C(F)(F)F)C1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)N[S](=O)(=O)C1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>FC1=CC=C(C=C1)C(N[S](=O)(=O)C(F)(F)F)=N[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(C=C(C=C1[S](F)(=O)=O)[S](F)(=O)=O)[S](F)(=O)=O</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)NC(=N[S](=O)(=O)C(F)(F)F)C1=CC=C(Cl)C=C1</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C1=CC(=CC(=C1)C2=C3O[S](=O)(=O)N[S](=O)(=O)OC4=C(C=C5C=CC=CC5=C4C3=C6C=CC=CC6=C2)C7=CC(=CC(=C7)C(F)(F)F)C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C(=C1F)F)[S](=O)(=O)N[S](=O)(=O)C2=C(F)C(=C(F)C(=C2F)F)F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)N[S](=O)(=O)C1=CC=C(Cl)C=C1</t>
+  </si>
+  <si>
+    <t>CC1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=N[S](=O)(=O)C(F)(F)F)C2=CC=C(Cl)C=C2</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC=C(C=C1)C(N[S](=O)(=O)C(F)(F)F)=N[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>OC1=C(C=C(C=C1[S](=O)(=O)C(F)(F)F)[S](=O)(=O)C(F)(F)F)[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)N=[S](=O)(N[S](=O)(=O)C1=CC=C(Cl)C=C1)C2=CC=C(Cl)C=C2</t>
+  </si>
+  <si>
+    <t>O[S](=O)(=O)C1=C(C=C(C=C1)[N+]([O-])=O)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=CC=C(C=C1)[S](=O)(=O)N[S](=O)(=N[S](=O)(=O)C(F)(F)F)C2=CC=C(Cl)C=C2</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C#N)C1=C(C(=C(C(=C1C(F)(F)F)C(F)(F)F)C(F)(F)F)C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C2=C(C(=C1F)F)C(=C(C(C#N)C#N)C(=C2F)F)F</t>
+  </si>
+  <si>
+    <t>CC(C)C1=C(O)C(=C(C)C(=C1)C2(O[S](=O)(=O)C3=C2C=CC=C3)C4=C(C)C(=C(O)C(=C4)C(C)C)Br)Br</t>
+  </si>
+  <si>
+    <t>CC1=C(Br)C(=C(Br)C=C1C2(O[S](=O)(=O)C3=C2C=CC=C3)C4=C(C)C(=C(O)C(=C4)Br)Br)O</t>
+  </si>
+  <si>
+    <t>OC1=C(C(=C(C=C1[N+]([O-])=O)[N+]([O-])=O)O)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>[O-][N+](=O)C1=C(Cl)C=CC(=C1)[S](=O)(=O)N[S](=O)(=O)C2=CC(=C(Cl)C=C2)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>NC(C(C#N)C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>OC1=C(C#N)C(=C(C#N)C(=C1C#N)C#N)C#N</t>
+  </si>
+  <si>
+    <t>CC(C(C#N)C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>COC1=C(OC)C=C(C=C1)C(C(C#N)C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>COC1=CC=C(C=C1)C(C(C#N)C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>FC1=C(F)C(=C(C([S](=O)(=O)C(F)(F)F)[S](=O)(=O)C(F)(F)F)C(=C1F)F)F</t>
+  </si>
+  <si>
+    <t>N#CC(C#N)C(C1=CC=CC=C1)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>O[S](F)(=O)=O</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C1=CC(=CC=C1)C(C(C#N)C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>N#CC(C=C(C#N)C#N)C#N</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)N=[S](=O)(N[S](=O)(=N[S](=O)(=O)C(F)(F)F)C1=CC=CC=C1)C2=CC=CC=C2</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(F)(F)[P](=O)(N[P](=O)(C(F)(F)C(F)(F)F)C(F)(F)C(F)(F)F)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>O[S](=O)(=O)C1=C(C=C(C=C1[N+]([O-])=O)[N+]([O-])=O)[N+]([O-])=O</t>
+  </si>
+  <si>
+    <t>N#CC(CC(C#N)=C(C#N)C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>BrC(C(C#N)C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>N#CC(NC(C#N)=C(C#N)C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C1=CC(=CC(=C1)C(C(C#N)C#N)=C(C#N)C#N)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)N[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>ClC(C(C#N)C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(F)(F)C(F)(F)[S](=O)(=O)N[S](=O)(=O)C(F)(F)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(F)(F)C(F)(F)C(F)(F)[S](=O)(=O)N[S](=O)(=O)C(F)(F)C(F)(F)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>N#CCC(C(C#N)C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(F)(F)[S](=O)(=O)N[S](=O)(=O)C(F)(F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(C(C#N)C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>FC1(F)C(F)(F)[S](=O)(=O)N[S](=O)(=O)C1(F)F</t>
+  </si>
+  <si>
+    <t>F[S](=O)(=O)C([S](F)(=O)=O)[S](F)(=O)=O</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)C(C#N)[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>N#CC(C#N)C(C#N)=C(C#N)C#N</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)C(CC([S](=O)(=O)C(F)(F)F)[S](=O)(=O)C(F)(F)F)[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)C(C=C([S](=O)(=O)C(F)(F)F)[S](=O)(=O)C(F)(F)F)[S](=O)(=O)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C1=CC(=CC(=C1)C2=C3C(=C4C=CC=CC4C2)C5=C6C=CC=CC6=CC(=C5[S](=O)(=O)N[S]3(=O)=O)C7=CC(=CC(=C7)C(F)(F)F)C(F)(F)F)C(F)(F)F</t>
+  </si>
+  <si>
+    <t>FC(F)(F)[S](=O)(=O)N=[P]1(N[P]2(OC3=C(C4=CC=CC=C4C=C3C5=CC=CC=C5)C6=C7C=CC=CC7=CC(=C6O2)C8=CC=CC=C8)=N[S](=O)(=O)C(F)(F)F)OC9=C(CC%10C=CC=CC%10=C9C%11=C(O1)C(=CC%12=CC=CC=C%11%12)C%13=CC=CC=C%13)C%14=CC=CC=C%14</t>
+  </si>
+  <si>
+    <t>corrected smiles</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>cas</t>
+  </si>
+  <si>
+    <t>iupac</t>
+  </si>
+  <si>
+    <t>solvent</t>
+  </si>
+  <si>
+    <t>pka</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>leito_acids</t>
+  </si>
+  <si>
+    <t>iodane</t>
+  </si>
+  <si>
+    <t>bromane</t>
+  </si>
+  <si>
+    <t>chlorane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9998,6 +10554,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10020,13 +10583,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10342,15 +10906,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575DB165-E01D-4743-B992-5364B748276C}">
-  <dimension ref="A1:J191"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -10360,8 +10927,11 @@
         <v>568</v>
       </c>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -10375,8 +10945,11 @@
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -10390,8 +10963,11 @@
       <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F3" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -10405,8 +10981,11 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F4" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -10420,8 +10999,11 @@
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F5" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -10435,8 +11017,11 @@
       <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F6" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -10450,8 +11035,11 @@
       <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -10465,11 +11053,14 @@
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J8" t="s">
+      <c r="F8" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="I8" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -10483,8 +11074,11 @@
       <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F9" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -10498,8 +11092,11 @@
       <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -10513,8 +11110,11 @@
       <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F11" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -10528,8 +11128,11 @@
       <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F12" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -10543,8 +11146,11 @@
       <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F13" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10558,8 +11164,11 @@
       <c r="E14" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -10573,8 +11182,11 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -10588,8 +11200,11 @@
       <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -10605,8 +11220,11 @@
       <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -10620,8 +11238,11 @@
       <c r="E18" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -10635,8 +11256,11 @@
       <c r="E19" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
@@ -10650,8 +11274,11 @@
       <c r="E20" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
@@ -10667,8 +11294,11 @@
       <c r="E21" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -10682,8 +11312,11 @@
       <c r="E22" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>63</v>
       </c>
@@ -10697,8 +11330,11 @@
       <c r="E23" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -10712,8 +11348,11 @@
       <c r="E24" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
@@ -10729,8 +11368,11 @@
       <c r="E25" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
@@ -10744,8 +11386,11 @@
       <c r="E26" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
@@ -10761,8 +11406,11 @@
       <c r="E27" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>78</v>
       </c>
@@ -10778,8 +11426,11 @@
       <c r="E28" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>81</v>
       </c>
@@ -10793,8 +11444,11 @@
       <c r="E29" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>174619</v>
       </c>
@@ -10808,8 +11462,11 @@
       <c r="E30" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>86</v>
       </c>
@@ -10823,8 +11480,11 @@
       <c r="E31" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>89</v>
       </c>
@@ -10838,8 +11498,11 @@
       <c r="E32" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>92</v>
       </c>
@@ -10853,8 +11516,11 @@
       <c r="E33" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
@@ -10868,8 +11534,11 @@
       <c r="E34" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>98</v>
       </c>
@@ -10883,8 +11552,11 @@
       <c r="E35" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>101</v>
       </c>
@@ -10900,8 +11572,11 @@
       <c r="E36" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>104</v>
       </c>
@@ -10915,8 +11590,11 @@
       <c r="E37" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>107</v>
       </c>
@@ -10930,8 +11608,11 @@
       <c r="E38" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>110</v>
       </c>
@@ -10947,8 +11628,11 @@
       <c r="E39" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>113</v>
       </c>
@@ -10964,8 +11648,11 @@
       <c r="E40" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>116</v>
       </c>
@@ -10979,8 +11666,11 @@
       <c r="E41" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>119</v>
       </c>
@@ -10994,8 +11684,11 @@
       <c r="E42" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>122</v>
       </c>
@@ -11011,8 +11704,11 @@
       <c r="E43" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>125</v>
       </c>
@@ -11026,8 +11722,11 @@
       <c r="E44" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>128</v>
       </c>
@@ -11041,8 +11740,11 @@
       <c r="E45" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>131</v>
       </c>
@@ -11056,8 +11758,11 @@
       <c r="E46" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>134</v>
       </c>
@@ -11071,8 +11776,11 @@
       <c r="E47" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>137</v>
       </c>
@@ -11088,8 +11796,11 @@
       <c r="E48" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>140</v>
       </c>
@@ -11103,8 +11814,11 @@
       <c r="E49" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>143</v>
       </c>
@@ -11120,8 +11834,11 @@
       <c r="E50" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>146</v>
       </c>
@@ -11137,8 +11854,11 @@
       <c r="E51" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>149</v>
       </c>
@@ -11152,8 +11872,11 @@
       <c r="E52" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>152</v>
       </c>
@@ -11167,8 +11890,11 @@
       <c r="E53" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>155</v>
       </c>
@@ -11184,8 +11910,11 @@
       <c r="E54" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>158</v>
       </c>
@@ -11199,8 +11928,11 @@
       <c r="E55" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>161</v>
       </c>
@@ -11216,8 +11948,11 @@
       <c r="E56" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>164</v>
       </c>
@@ -11231,8 +11966,11 @@
       <c r="E57" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>167</v>
       </c>
@@ -11246,8 +11984,11 @@
       <c r="E58" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>170</v>
       </c>
@@ -11263,8 +12004,11 @@
       <c r="E59" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>173</v>
       </c>
@@ -11280,8 +12024,11 @@
       <c r="E60" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>176</v>
       </c>
@@ -11295,8 +12042,11 @@
       <c r="E61" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>179</v>
       </c>
@@ -11310,8 +12060,11 @@
       <c r="E62" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>182</v>
       </c>
@@ -11325,8 +12078,11 @@
       <c r="E63" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>185</v>
       </c>
@@ -11340,8 +12096,11 @@
       <c r="E64" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>188</v>
       </c>
@@ -11355,8 +12114,11 @@
       <c r="E65" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>191</v>
       </c>
@@ -11372,8 +12134,11 @@
       <c r="E66" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>194</v>
       </c>
@@ -11387,8 +12152,11 @@
       <c r="E67" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>197</v>
       </c>
@@ -11402,8 +12170,11 @@
       <c r="E68" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>200</v>
       </c>
@@ -11417,8 +12188,11 @@
       <c r="E69" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>203</v>
       </c>
@@ -11434,8 +12208,11 @@
       <c r="E70" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>206</v>
       </c>
@@ -11449,8 +12226,11 @@
       <c r="E71" s="4" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>209</v>
       </c>
@@ -11464,8 +12244,11 @@
       <c r="E72" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>212</v>
       </c>
@@ -11479,8 +12262,11 @@
       <c r="E73" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>215</v>
       </c>
@@ -11494,8 +12280,11 @@
       <c r="E74" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>218</v>
       </c>
@@ -11509,8 +12298,11 @@
       <c r="E75" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>221</v>
       </c>
@@ -11524,8 +12316,11 @@
       <c r="E76" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>224</v>
       </c>
@@ -11539,8 +12334,11 @@
       <c r="E77" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>227</v>
       </c>
@@ -11554,8 +12352,11 @@
       <c r="E78" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>230</v>
       </c>
@@ -11569,8 +12370,11 @@
       <c r="E79" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>233</v>
       </c>
@@ -11586,8 +12390,11 @@
       <c r="E80" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>236</v>
       </c>
@@ -11601,8 +12408,11 @@
       <c r="E81" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>239</v>
       </c>
@@ -11616,8 +12426,11 @@
       <c r="E82" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>242</v>
       </c>
@@ -11633,8 +12446,11 @@
       <c r="E83" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>245</v>
       </c>
@@ -11648,8 +12464,11 @@
       <c r="E84" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="6" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>248</v>
       </c>
@@ -11665,8 +12484,11 @@
       <c r="E85" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>251</v>
       </c>
@@ -11680,8 +12502,11 @@
       <c r="E86" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>254</v>
       </c>
@@ -11697,8 +12522,11 @@
       <c r="E87" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>257</v>
       </c>
@@ -11712,8 +12540,11 @@
       <c r="E88" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>260</v>
       </c>
@@ -11729,8 +12560,11 @@
       <c r="E89" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>263</v>
       </c>
@@ -11744,8 +12578,11 @@
       <c r="E90" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>266</v>
       </c>
@@ -11759,8 +12596,11 @@
       <c r="E91" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>269</v>
       </c>
@@ -11776,8 +12616,11 @@
       <c r="E92" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>272</v>
       </c>
@@ -11793,8 +12636,11 @@
       <c r="E93" s="4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>275</v>
       </c>
@@ -11808,8 +12654,11 @@
       <c r="E94" s="4" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>278</v>
       </c>
@@ -11823,8 +12672,11 @@
       <c r="E95" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>770456</v>
       </c>
@@ -11840,8 +12692,11 @@
       <c r="E96" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>283</v>
       </c>
@@ -11855,8 +12710,11 @@
       <c r="E97" s="4" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>286</v>
       </c>
@@ -11870,8 +12728,11 @@
       <c r="E98" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>289</v>
       </c>
@@ -11885,8 +12746,11 @@
       <c r="E99" s="4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>292</v>
       </c>
@@ -11900,8 +12764,11 @@
       <c r="E100" s="4" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>295</v>
       </c>
@@ -11915,8 +12782,11 @@
       <c r="E101" s="4" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>298</v>
       </c>
@@ -11930,8 +12800,11 @@
       <c r="E102" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>301</v>
       </c>
@@ -11947,8 +12820,11 @@
       <c r="E103" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>304</v>
       </c>
@@ -11962,8 +12838,11 @@
       <c r="E104" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>307</v>
       </c>
@@ -11977,8 +12856,11 @@
       <c r="E105" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>310</v>
       </c>
@@ -11992,8 +12874,11 @@
       <c r="E106" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>313</v>
       </c>
@@ -12007,8 +12892,11 @@
       <c r="E107" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>316</v>
       </c>
@@ -12022,8 +12910,11 @@
       <c r="E108" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>319</v>
       </c>
@@ -12037,8 +12928,11 @@
       <c r="E109" s="4" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>322</v>
       </c>
@@ -12052,8 +12946,11 @@
       <c r="E110" s="4" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>325</v>
       </c>
@@ -12067,8 +12964,11 @@
       <c r="E111" s="4" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>328</v>
       </c>
@@ -12082,8 +12982,11 @@
       <c r="E112" s="4" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>331</v>
       </c>
@@ -12097,8 +13000,11 @@
       <c r="E113" s="4" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>334</v>
       </c>
@@ -12112,8 +13018,11 @@
       <c r="E114" s="4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>337</v>
       </c>
@@ -12127,8 +13036,11 @@
       <c r="E115" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>340</v>
       </c>
@@ -12142,8 +13054,11 @@
       <c r="E116" s="4" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>343</v>
       </c>
@@ -12157,8 +13072,11 @@
       <c r="E117" s="4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="6" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>346</v>
       </c>
@@ -12172,8 +13090,11 @@
       <c r="E118" s="4" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>349</v>
       </c>
@@ -12187,8 +13108,11 @@
       <c r="E119" s="4" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>352</v>
       </c>
@@ -12202,8 +13126,11 @@
       <c r="E120" s="4" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>355</v>
       </c>
@@ -12217,8 +13144,11 @@
       <c r="E121" s="4" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>358</v>
       </c>
@@ -12234,8 +13164,11 @@
       <c r="E122" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>361</v>
       </c>
@@ -12249,8 +13182,11 @@
       <c r="E123" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>364</v>
       </c>
@@ -12264,8 +13200,11 @@
       <c r="E124" s="4" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>367</v>
       </c>
@@ -12281,8 +13220,11 @@
       <c r="E125" s="4" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>370</v>
       </c>
@@ -12296,8 +13238,11 @@
       <c r="E126" s="4" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>373</v>
       </c>
@@ -12313,8 +13258,11 @@
       <c r="E127" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>376</v>
       </c>
@@ -12328,8 +13276,11 @@
       <c r="E128" s="4" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>379</v>
       </c>
@@ -12345,8 +13296,11 @@
       <c r="E129" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>382</v>
       </c>
@@ -12362,8 +13316,11 @@
       <c r="E130" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="6" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>385</v>
       </c>
@@ -12377,8 +13334,11 @@
       <c r="E131" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>388</v>
       </c>
@@ -12392,8 +13352,11 @@
       <c r="E132" s="4" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>391</v>
       </c>
@@ -12407,8 +13370,11 @@
       <c r="E133" s="4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>394</v>
       </c>
@@ -12424,8 +13390,11 @@
       <c r="E134" s="4" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>397</v>
       </c>
@@ -12441,8 +13410,11 @@
       <c r="E135" s="4" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>400</v>
       </c>
@@ -12458,8 +13430,11 @@
       <c r="E136" s="4" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>403</v>
       </c>
@@ -12475,8 +13450,11 @@
       <c r="E137" s="4" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>406</v>
       </c>
@@ -12492,8 +13470,11 @@
       <c r="E138" s="4" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>409</v>
       </c>
@@ -12509,8 +13490,11 @@
       <c r="E139" s="4" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>412</v>
       </c>
@@ -12526,8 +13510,11 @@
       <c r="E140" s="4" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>415</v>
       </c>
@@ -12543,8 +13530,11 @@
       <c r="E141" s="4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>418</v>
       </c>
@@ -12560,8 +13550,11 @@
       <c r="E142" s="4" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>421</v>
       </c>
@@ -12577,8 +13570,11 @@
       <c r="E143" s="4" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>424</v>
       </c>
@@ -12592,8 +13588,11 @@
       <c r="E144" s="4" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>427</v>
       </c>
@@ -12609,8 +13608,11 @@
       <c r="E145" s="4" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" s="6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>430</v>
       </c>
@@ -12624,8 +13626,11 @@
       <c r="E146" s="4" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>433</v>
       </c>
@@ -12639,8 +13644,11 @@
       <c r="E147" s="4" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>436</v>
       </c>
@@ -12654,8 +13662,11 @@
       <c r="E148" s="4" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>439</v>
       </c>
@@ -12669,8 +13680,11 @@
       <c r="E149" s="4" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>442</v>
       </c>
@@ -12684,8 +13698,11 @@
       <c r="E150" s="4" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>445</v>
       </c>
@@ -12699,8 +13716,11 @@
       <c r="E151" s="4" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" s="6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>448</v>
       </c>
@@ -12714,8 +13734,11 @@
       <c r="E152" s="4" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>451</v>
       </c>
@@ -12729,8 +13752,11 @@
       <c r="E153" s="4" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>454</v>
       </c>
@@ -12744,8 +13770,11 @@
       <c r="E154" s="4" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" s="6" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>457</v>
       </c>
@@ -12759,8 +13788,11 @@
       <c r="E155" s="4" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>460</v>
       </c>
@@ -12774,8 +13806,11 @@
       <c r="E156" s="4" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>463</v>
       </c>
@@ -12789,8 +13824,11 @@
       <c r="E157" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>466</v>
       </c>
@@ -12804,8 +13842,11 @@
       <c r="E158" s="4" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>469</v>
       </c>
@@ -12819,8 +13860,11 @@
       <c r="E159" s="4" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>472</v>
       </c>
@@ -12834,8 +13878,11 @@
       <c r="E160" s="4" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>475</v>
       </c>
@@ -12849,8 +13896,11 @@
       <c r="E161" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>478</v>
       </c>
@@ -12864,8 +13914,11 @@
       <c r="E162" s="4" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>481</v>
       </c>
@@ -12879,8 +13932,11 @@
       <c r="E163" s="4" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>484</v>
       </c>
@@ -12894,8 +13950,11 @@
       <c r="E164" s="4" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" s="6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>487</v>
       </c>
@@ -12909,8 +13968,11 @@
       <c r="E165" s="4" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>490</v>
       </c>
@@ -12924,8 +13986,11 @@
       <c r="E166" s="4" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>493</v>
       </c>
@@ -12939,8 +14004,11 @@
       <c r="E167" s="4" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>496</v>
       </c>
@@ -12954,8 +14022,11 @@
       <c r="E168" s="4" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>499</v>
       </c>
@@ -12969,8 +14040,11 @@
       <c r="E169" s="4" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>502</v>
       </c>
@@ -12984,8 +14058,11 @@
       <c r="E170" s="4" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>505</v>
       </c>
@@ -12999,8 +14076,11 @@
       <c r="E171" s="4" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>508</v>
       </c>
@@ -13014,8 +14094,11 @@
       <c r="E172" s="4" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>511</v>
       </c>
@@ -13029,8 +14112,11 @@
       <c r="E173" s="4" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" s="6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>514</v>
       </c>
@@ -13044,8 +14130,11 @@
       <c r="E174" s="4" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>517</v>
       </c>
@@ -13059,8 +14148,11 @@
       <c r="E175" s="4" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>520</v>
       </c>
@@ -13074,8 +14166,11 @@
       <c r="E176" s="4" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>523</v>
       </c>
@@ -13089,8 +14184,11 @@
       <c r="E177" s="4" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>526</v>
       </c>
@@ -13104,8 +14202,11 @@
       <c r="E178" s="4" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>529</v>
       </c>
@@ -13119,8 +14220,11 @@
       <c r="E179" s="4" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179" s="6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>532</v>
       </c>
@@ -13134,8 +14238,11 @@
       <c r="E180" s="4" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>535</v>
       </c>
@@ -13149,8 +14256,11 @@
       <c r="E181" s="4" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>538</v>
       </c>
@@ -13164,8 +14274,11 @@
       <c r="E182" s="4" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182" s="6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>541</v>
       </c>
@@ -13179,8 +14292,11 @@
       <c r="E183" s="4" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>544</v>
       </c>
@@ -13194,8 +14310,11 @@
       <c r="E184" s="4" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>547</v>
       </c>
@@ -13209,8 +14328,11 @@
       <c r="E185" s="4" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" s="6" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>550</v>
       </c>
@@ -13224,8 +14346,11 @@
       <c r="E186" s="4" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>553</v>
       </c>
@@ -13239,8 +14364,11 @@
       <c r="E187" s="4" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>556</v>
       </c>
@@ -13252,8 +14380,11 @@
       <c r="E188" s="4" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>559</v>
       </c>
@@ -13265,8 +14396,11 @@
       <c r="E189" s="4" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>562</v>
       </c>
@@ -13280,8 +14414,11 @@
       <c r="E190" s="4" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190" s="6" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>565</v>
       </c>
@@ -13294,6 +14431,9 @@
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
         <v>567</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -13537,4 +14677,5668 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B29441E-E5BE-6845-890F-79DB002CD569}">
+  <dimension ref="A1:Q232"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D232"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="F1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G1" t="s">
+        <v>750</v>
+      </c>
+      <c r="H1" t="s">
+        <v>751</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G2" s="3">
+        <v>29.14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>752</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>569</v>
+      </c>
+      <c r="G3" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>752</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>569</v>
+      </c>
+      <c r="G4" s="3">
+        <v>28.11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>752</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G5" s="3">
+        <v>26.96</v>
+      </c>
+      <c r="H5" t="s">
+        <v>752</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>569</v>
+      </c>
+      <c r="G6" s="3">
+        <v>26.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>752</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G7" s="3">
+        <v>26.34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>752</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>569</v>
+      </c>
+      <c r="G8" s="3">
+        <v>26.14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>752</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>569</v>
+      </c>
+      <c r="G9" s="3">
+        <v>25.54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>752</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>569</v>
+      </c>
+      <c r="G10" s="3">
+        <v>25.12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>752</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>569</v>
+      </c>
+      <c r="G11" s="3">
+        <v>24.94</v>
+      </c>
+      <c r="H11" t="s">
+        <v>752</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>569</v>
+      </c>
+      <c r="G12" s="3">
+        <v>24.88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>752</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>569</v>
+      </c>
+      <c r="G13" s="3">
+        <v>24.59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>752</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>569</v>
+      </c>
+      <c r="G14" s="3">
+        <v>24.49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>752</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>569</v>
+      </c>
+      <c r="G15" s="3">
+        <v>23.9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>752</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>569</v>
+      </c>
+      <c r="G16" s="3">
+        <v>23.78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>752</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>569</v>
+      </c>
+      <c r="G17" s="3">
+        <v>23.53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>752</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>569</v>
+      </c>
+      <c r="G18" s="3">
+        <v>23.51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>752</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>569</v>
+      </c>
+      <c r="G19" s="3">
+        <v>22.85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>752</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>569</v>
+      </c>
+      <c r="G20" s="3">
+        <v>22.85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>752</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>569</v>
+      </c>
+      <c r="G21" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>752</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>569</v>
+      </c>
+      <c r="G22" s="3">
+        <v>22.77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>752</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>569</v>
+      </c>
+      <c r="G23" s="3">
+        <v>22.15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>752</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>569</v>
+      </c>
+      <c r="G24" s="3">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>752</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>569</v>
+      </c>
+      <c r="G25" s="3">
+        <v>21.94</v>
+      </c>
+      <c r="H25" t="s">
+        <v>752</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>569</v>
+      </c>
+      <c r="G26" s="3">
+        <v>21.51</v>
+      </c>
+      <c r="H26" t="s">
+        <v>752</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>569</v>
+      </c>
+      <c r="G27" s="3">
+        <v>21.36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>752</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>569</v>
+      </c>
+      <c r="G28" s="3">
+        <v>21.11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>752</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>569</v>
+      </c>
+      <c r="G29" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>752</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="5">
+        <v>174619</v>
+      </c>
+      <c r="E30" t="s">
+        <v>569</v>
+      </c>
+      <c r="G30" s="3">
+        <v>20.55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>752</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>569</v>
+      </c>
+      <c r="G31" s="3">
+        <v>20.36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>752</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>569</v>
+      </c>
+      <c r="G32" s="3">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="H32" t="s">
+        <v>752</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>569</v>
+      </c>
+      <c r="G33" s="3">
+        <v>20.13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>752</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>569</v>
+      </c>
+      <c r="G34" s="3">
+        <v>20.12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>752</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>569</v>
+      </c>
+      <c r="G35" s="3">
+        <v>20.11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>752</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>569</v>
+      </c>
+      <c r="G36" s="3">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="H36" t="s">
+        <v>752</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>569</v>
+      </c>
+      <c r="G37" s="3">
+        <v>19.72</v>
+      </c>
+      <c r="H37" t="s">
+        <v>752</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>569</v>
+      </c>
+      <c r="G38" s="3">
+        <v>19.66</v>
+      </c>
+      <c r="H38" t="s">
+        <v>752</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" t="s">
+        <v>569</v>
+      </c>
+      <c r="G39" s="3">
+        <v>19.32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>752</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" t="s">
+        <v>569</v>
+      </c>
+      <c r="G40" s="3">
+        <v>18.88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>752</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" t="s">
+        <v>569</v>
+      </c>
+      <c r="G41" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>752</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>569</v>
+      </c>
+      <c r="G42" s="3">
+        <v>18.25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>752</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>569</v>
+      </c>
+      <c r="G43" s="3">
+        <v>18.14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>752</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" t="s">
+        <v>569</v>
+      </c>
+      <c r="G44" s="3">
+        <v>18.11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>752</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" t="s">
+        <v>569</v>
+      </c>
+      <c r="G45" s="3">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="H45" t="s">
+        <v>752</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>569</v>
+      </c>
+      <c r="G46" s="3">
+        <v>18.02</v>
+      </c>
+      <c r="H46" t="s">
+        <v>752</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>569</v>
+      </c>
+      <c r="G47" s="3">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="H47" t="s">
+        <v>752</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>569</v>
+      </c>
+      <c r="G48" s="3">
+        <v>17.75</v>
+      </c>
+      <c r="H48" t="s">
+        <v>752</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" t="s">
+        <v>569</v>
+      </c>
+      <c r="G49" s="3">
+        <v>17.59</v>
+      </c>
+      <c r="H49" t="s">
+        <v>752</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="s">
+        <v>569</v>
+      </c>
+      <c r="G50" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>752</v>
+      </c>
+      <c r="L50" s="4"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" t="s">
+        <v>569</v>
+      </c>
+      <c r="G51" s="3">
+        <v>17.39</v>
+      </c>
+      <c r="H51" t="s">
+        <v>752</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" t="s">
+        <v>569</v>
+      </c>
+      <c r="G52" s="3">
+        <v>16.66</v>
+      </c>
+      <c r="H52" t="s">
+        <v>752</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" t="s">
+        <v>569</v>
+      </c>
+      <c r="G53" s="3">
+        <v>16.62</v>
+      </c>
+      <c r="H53" t="s">
+        <v>752</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" t="s">
+        <v>569</v>
+      </c>
+      <c r="G54" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H54" t="s">
+        <v>752</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" t="s">
+        <v>569</v>
+      </c>
+      <c r="G55" s="3">
+        <v>16.13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>752</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>569</v>
+      </c>
+      <c r="G56" s="3">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="H56" t="s">
+        <v>752</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" t="s">
+        <v>569</v>
+      </c>
+      <c r="G57" s="3">
+        <v>16.02</v>
+      </c>
+      <c r="H57" t="s">
+        <v>752</v>
+      </c>
+      <c r="L57" s="4"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" t="s">
+        <v>569</v>
+      </c>
+      <c r="G58" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="H58" t="s">
+        <v>752</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" t="s">
+        <v>569</v>
+      </c>
+      <c r="G59" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="H59" t="s">
+        <v>752</v>
+      </c>
+      <c r="L59" s="4"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" t="s">
+        <v>569</v>
+      </c>
+      <c r="G60" s="3">
+        <v>14.72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>752</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" t="s">
+        <v>569</v>
+      </c>
+      <c r="G61" s="3">
+        <v>14.57</v>
+      </c>
+      <c r="H61" t="s">
+        <v>752</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" t="s">
+        <v>569</v>
+      </c>
+      <c r="G62" s="3">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>752</v>
+      </c>
+      <c r="L62" s="4"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" t="s">
+        <v>569</v>
+      </c>
+      <c r="G63" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>752</v>
+      </c>
+      <c r="L63" s="4"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="6"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" t="s">
+        <v>569</v>
+      </c>
+      <c r="G64" s="3">
+        <v>13.87</v>
+      </c>
+      <c r="H64" t="s">
+        <v>752</v>
+      </c>
+      <c r="L64" s="4"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" t="s">
+        <v>569</v>
+      </c>
+      <c r="G65" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>752</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="6"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" t="s">
+        <v>569</v>
+      </c>
+      <c r="G66" s="3">
+        <v>13.46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>752</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="6"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" t="s">
+        <v>569</v>
+      </c>
+      <c r="G67" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="H67" t="s">
+        <v>752</v>
+      </c>
+      <c r="L67" s="4"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="6"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" t="s">
+        <v>569</v>
+      </c>
+      <c r="G68" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="H68" t="s">
+        <v>752</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="6"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>569</v>
+      </c>
+      <c r="G69" s="3">
+        <v>13.01</v>
+      </c>
+      <c r="H69" t="s">
+        <v>752</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" t="s">
+        <v>569</v>
+      </c>
+      <c r="G70" s="3">
+        <v>12.98</v>
+      </c>
+      <c r="H70" t="s">
+        <v>752</v>
+      </c>
+      <c r="L70" s="4"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" t="s">
+        <v>569</v>
+      </c>
+      <c r="G71" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="H71" t="s">
+        <v>752</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="6"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" t="s">
+        <v>569</v>
+      </c>
+      <c r="G72" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>752</v>
+      </c>
+      <c r="L72" s="4"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" t="s">
+        <v>569</v>
+      </c>
+      <c r="G73" s="3">
+        <v>11.97</v>
+      </c>
+      <c r="H73" t="s">
+        <v>752</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="6"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" t="s">
+        <v>569</v>
+      </c>
+      <c r="G74" s="3">
+        <v>11.61</v>
+      </c>
+      <c r="H74" t="s">
+        <v>752</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" t="s">
+        <v>569</v>
+      </c>
+      <c r="G75" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="H75" t="s">
+        <v>752</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="6"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" t="s">
+        <v>569</v>
+      </c>
+      <c r="G76" s="3">
+        <v>11.46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>752</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="6"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" t="s">
+        <v>569</v>
+      </c>
+      <c r="G77" s="3">
+        <v>11.34</v>
+      </c>
+      <c r="H77" t="s">
+        <v>752</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="6"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" t="s">
+        <v>569</v>
+      </c>
+      <c r="G78" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>752</v>
+      </c>
+      <c r="L78" s="4"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="6"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" t="s">
+        <v>569</v>
+      </c>
+      <c r="G79" s="3">
+        <v>11.06</v>
+      </c>
+      <c r="H79" t="s">
+        <v>752</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="6"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E80" t="s">
+        <v>569</v>
+      </c>
+      <c r="G80" s="3">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>752</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="6"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" t="s">
+        <v>569</v>
+      </c>
+      <c r="G81" s="3">
+        <v>10.65</v>
+      </c>
+      <c r="H81" t="s">
+        <v>752</v>
+      </c>
+      <c r="L81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="6"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E82" t="s">
+        <v>569</v>
+      </c>
+      <c r="G82" s="3">
+        <v>10.46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>752</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" t="s">
+        <v>569</v>
+      </c>
+      <c r="G83" s="3">
+        <v>10.45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>752</v>
+      </c>
+      <c r="L83" s="4"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E84" t="s">
+        <v>569</v>
+      </c>
+      <c r="G84" s="3">
+        <v>10.36</v>
+      </c>
+      <c r="H84" t="s">
+        <v>752</v>
+      </c>
+      <c r="L84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" t="s">
+        <v>755</v>
+      </c>
+      <c r="E85" t="s">
+        <v>569</v>
+      </c>
+      <c r="G85" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="H85" t="s">
+        <v>752</v>
+      </c>
+      <c r="L85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" t="s">
+        <v>569</v>
+      </c>
+      <c r="G86" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H86" t="s">
+        <v>752</v>
+      </c>
+      <c r="L86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E87" t="s">
+        <v>569</v>
+      </c>
+      <c r="G87" s="3">
+        <v>10.19</v>
+      </c>
+      <c r="H87" t="s">
+        <v>752</v>
+      </c>
+      <c r="L87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88" t="s">
+        <v>569</v>
+      </c>
+      <c r="G88" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>752</v>
+      </c>
+      <c r="L88" s="4"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E89" t="s">
+        <v>569</v>
+      </c>
+      <c r="G89" s="3">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="H89" t="s">
+        <v>752</v>
+      </c>
+      <c r="L89" s="4"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E90" t="s">
+        <v>569</v>
+      </c>
+      <c r="G90" s="3">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="H90" t="s">
+        <v>752</v>
+      </c>
+      <c r="L90" s="4"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E91" t="s">
+        <v>569</v>
+      </c>
+      <c r="G91" s="3">
+        <v>9.49</v>
+      </c>
+      <c r="H91" t="s">
+        <v>752</v>
+      </c>
+      <c r="L91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E92" t="s">
+        <v>569</v>
+      </c>
+      <c r="G92" s="3">
+        <v>9.17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>752</v>
+      </c>
+      <c r="L92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E93" t="s">
+        <v>569</v>
+      </c>
+      <c r="G93" s="3">
+        <v>8.86</v>
+      </c>
+      <c r="H93" t="s">
+        <v>752</v>
+      </c>
+      <c r="L93" s="4"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E94" t="s">
+        <v>569</v>
+      </c>
+      <c r="G94" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H94" t="s">
+        <v>752</v>
+      </c>
+      <c r="L94" s="4"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E95" t="s">
+        <v>569</v>
+      </c>
+      <c r="G95" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="H95" t="s">
+        <v>752</v>
+      </c>
+      <c r="L95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="6"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C96" s="5">
+        <v>770456</v>
+      </c>
+      <c r="E96" t="s">
+        <v>569</v>
+      </c>
+      <c r="G96" s="3">
+        <v>8.19</v>
+      </c>
+      <c r="H96" t="s">
+        <v>752</v>
+      </c>
+      <c r="L96" s="5"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E97" t="s">
+        <v>569</v>
+      </c>
+      <c r="G97" s="3">
+        <v>8.17</v>
+      </c>
+      <c r="H97" t="s">
+        <v>752</v>
+      </c>
+      <c r="L97" s="4"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="6"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" t="s">
+        <v>569</v>
+      </c>
+      <c r="G98" s="3">
+        <v>8.15</v>
+      </c>
+      <c r="H98" t="s">
+        <v>752</v>
+      </c>
+      <c r="L98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="6"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E99" t="s">
+        <v>569</v>
+      </c>
+      <c r="G99" s="3">
+        <v>7.97</v>
+      </c>
+      <c r="H99" t="s">
+        <v>752</v>
+      </c>
+      <c r="L99" s="4"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="6"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E100" t="s">
+        <v>569</v>
+      </c>
+      <c r="G100" s="3">
+        <v>7.89</v>
+      </c>
+      <c r="H100" t="s">
+        <v>752</v>
+      </c>
+      <c r="L100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="6"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E101" t="s">
+        <v>569</v>
+      </c>
+      <c r="G101" s="3">
+        <v>7.88</v>
+      </c>
+      <c r="H101" t="s">
+        <v>752</v>
+      </c>
+      <c r="L101" s="4"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="6"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E102" t="s">
+        <v>569</v>
+      </c>
+      <c r="G102" s="3">
+        <v>7.85</v>
+      </c>
+      <c r="H102" t="s">
+        <v>752</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="6"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E103" t="s">
+        <v>569</v>
+      </c>
+      <c r="G103" s="3">
+        <v>7.84</v>
+      </c>
+      <c r="H103" t="s">
+        <v>752</v>
+      </c>
+      <c r="L103" s="4"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="6"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E104" t="s">
+        <v>569</v>
+      </c>
+      <c r="G104" s="3">
+        <v>7.57</v>
+      </c>
+      <c r="H104" t="s">
+        <v>752</v>
+      </c>
+      <c r="L104" s="4"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="6"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E105" t="s">
+        <v>569</v>
+      </c>
+      <c r="G105" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="H105" t="s">
+        <v>752</v>
+      </c>
+      <c r="L105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="6"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E106" t="s">
+        <v>569</v>
+      </c>
+      <c r="G106" s="3">
+        <v>7</v>
+      </c>
+      <c r="H106" t="s">
+        <v>752</v>
+      </c>
+      <c r="L106" s="4"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="6"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E107" t="s">
+        <v>569</v>
+      </c>
+      <c r="G107" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="H107" t="s">
+        <v>752</v>
+      </c>
+      <c r="L107" s="4"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="6"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E108" t="s">
+        <v>569</v>
+      </c>
+      <c r="G108" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="H108" t="s">
+        <v>752</v>
+      </c>
+      <c r="L108" s="4"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="6"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E109" t="s">
+        <v>569</v>
+      </c>
+      <c r="G109" s="3">
+        <v>6.73</v>
+      </c>
+      <c r="H109" t="s">
+        <v>752</v>
+      </c>
+      <c r="L109" s="4"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="6"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E110" t="s">
+        <v>569</v>
+      </c>
+      <c r="G110" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="H110" t="s">
+        <v>752</v>
+      </c>
+      <c r="L110" s="4"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="6"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E111" t="s">
+        <v>569</v>
+      </c>
+      <c r="G111" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="H111" t="s">
+        <v>752</v>
+      </c>
+      <c r="L111" s="4"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="6"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E112" t="s">
+        <v>569</v>
+      </c>
+      <c r="G112" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="H112" t="s">
+        <v>752</v>
+      </c>
+      <c r="L112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="6"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E113" t="s">
+        <v>569</v>
+      </c>
+      <c r="G113" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="H113" t="s">
+        <v>752</v>
+      </c>
+      <c r="L113" s="4"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="6"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E114" t="s">
+        <v>569</v>
+      </c>
+      <c r="G114" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="H114" t="s">
+        <v>752</v>
+      </c>
+      <c r="L114" s="4"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="6"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E115" t="s">
+        <v>569</v>
+      </c>
+      <c r="G115" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="H115" t="s">
+        <v>752</v>
+      </c>
+      <c r="L115" s="4"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="6"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E116" t="s">
+        <v>569</v>
+      </c>
+      <c r="G116" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="H116" t="s">
+        <v>752</v>
+      </c>
+      <c r="L116" s="4"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="6"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E117" t="s">
+        <v>569</v>
+      </c>
+      <c r="G117" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="H117" t="s">
+        <v>752</v>
+      </c>
+      <c r="L117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="6"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E118" t="s">
+        <v>569</v>
+      </c>
+      <c r="G118" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="H118" t="s">
+        <v>752</v>
+      </c>
+      <c r="L118" s="4"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="6"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E119" t="s">
+        <v>569</v>
+      </c>
+      <c r="G119" s="3">
+        <v>6.22</v>
+      </c>
+      <c r="H119" t="s">
+        <v>752</v>
+      </c>
+      <c r="L119" s="4"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="6"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E120" t="s">
+        <v>569</v>
+      </c>
+      <c r="G120" s="3">
+        <v>6.18</v>
+      </c>
+      <c r="H120" t="s">
+        <v>752</v>
+      </c>
+      <c r="L120" s="4"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="6"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E121" t="s">
+        <v>569</v>
+      </c>
+      <c r="G121" s="3">
+        <v>6.09</v>
+      </c>
+      <c r="H121" t="s">
+        <v>752</v>
+      </c>
+      <c r="L121" s="4"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="6"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E122" t="s">
+        <v>569</v>
+      </c>
+      <c r="G122" s="3">
+        <v>6.06</v>
+      </c>
+      <c r="H122" t="s">
+        <v>752</v>
+      </c>
+      <c r="L122" s="4"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="6"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E123" t="s">
+        <v>569</v>
+      </c>
+      <c r="G123" s="3">
+        <v>5.86</v>
+      </c>
+      <c r="H123" t="s">
+        <v>752</v>
+      </c>
+      <c r="L123" s="4"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="6"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E124" t="s">
+        <v>569</v>
+      </c>
+      <c r="G124" s="3">
+        <v>5.86</v>
+      </c>
+      <c r="H124" t="s">
+        <v>752</v>
+      </c>
+      <c r="L124" s="4"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="6"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E125" t="s">
+        <v>569</v>
+      </c>
+      <c r="G125" s="3">
+        <v>5.71</v>
+      </c>
+      <c r="H125" t="s">
+        <v>752</v>
+      </c>
+      <c r="L125" s="4"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="6"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E126" t="s">
+        <v>569</v>
+      </c>
+      <c r="G126" s="3">
+        <v>5.55</v>
+      </c>
+      <c r="H126" t="s">
+        <v>752</v>
+      </c>
+      <c r="L126" s="4"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="6"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D127" t="s">
+        <v>754</v>
+      </c>
+      <c r="E127" t="s">
+        <v>569</v>
+      </c>
+      <c r="G127" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="H127" t="s">
+        <v>752</v>
+      </c>
+      <c r="L127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="6"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E128" t="s">
+        <v>569</v>
+      </c>
+      <c r="G128" s="3">
+        <v>5.33</v>
+      </c>
+      <c r="H128" t="s">
+        <v>752</v>
+      </c>
+      <c r="L128" s="4"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="6"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E129" t="s">
+        <v>569</v>
+      </c>
+      <c r="G129" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="H129" t="s">
+        <v>752</v>
+      </c>
+      <c r="L129" s="4"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="6"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E130" t="s">
+        <v>569</v>
+      </c>
+      <c r="G130" s="3">
+        <v>5.24</v>
+      </c>
+      <c r="H130" t="s">
+        <v>752</v>
+      </c>
+      <c r="L130" s="4"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="6"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E131" t="s">
+        <v>569</v>
+      </c>
+      <c r="G131" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="H131" t="s">
+        <v>752</v>
+      </c>
+      <c r="L131" s="4"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="6"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E132" t="s">
+        <v>569</v>
+      </c>
+      <c r="G132" s="3">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="H132" t="s">
+        <v>752</v>
+      </c>
+      <c r="L132" s="4"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="6"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E133" t="s">
+        <v>569</v>
+      </c>
+      <c r="G133" s="3">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="H133" t="s">
+        <v>752</v>
+      </c>
+      <c r="L133" s="4"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="6"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E134" t="s">
+        <v>569</v>
+      </c>
+      <c r="G134" s="3">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="H134" t="s">
+        <v>752</v>
+      </c>
+      <c r="L134" s="4"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="6"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E135" t="s">
+        <v>569</v>
+      </c>
+      <c r="G135" s="3">
+        <v>4.67</v>
+      </c>
+      <c r="H135" t="s">
+        <v>752</v>
+      </c>
+      <c r="L135" s="4"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="6"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E136" t="s">
+        <v>569</v>
+      </c>
+      <c r="G136" s="3">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="H136" t="s">
+        <v>752</v>
+      </c>
+      <c r="L136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="6"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E137" t="s">
+        <v>569</v>
+      </c>
+      <c r="G137" s="3">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="H137" t="s">
+        <v>752</v>
+      </c>
+      <c r="L137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="6"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E138" t="s">
+        <v>569</v>
+      </c>
+      <c r="G138" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="H138" t="s">
+        <v>752</v>
+      </c>
+      <c r="L138" s="4"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="6"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E139" t="s">
+        <v>569</v>
+      </c>
+      <c r="G139" s="3">
+        <v>4.03</v>
+      </c>
+      <c r="H139" t="s">
+        <v>752</v>
+      </c>
+      <c r="L139" s="4"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="6"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E140" t="s">
+        <v>569</v>
+      </c>
+      <c r="G140" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="H140" t="s">
+        <v>752</v>
+      </c>
+      <c r="L140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="6"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E141" t="s">
+        <v>569</v>
+      </c>
+      <c r="G141" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="H141" t="s">
+        <v>752</v>
+      </c>
+      <c r="L141" s="4"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="6"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E142" t="s">
+        <v>569</v>
+      </c>
+      <c r="G142" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="H142" t="s">
+        <v>752</v>
+      </c>
+      <c r="L142" s="4"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="6"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D143" t="s">
+        <v>753</v>
+      </c>
+      <c r="E143" t="s">
+        <v>569</v>
+      </c>
+      <c r="G143" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="H143" t="s">
+        <v>752</v>
+      </c>
+      <c r="L143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="6"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E144" t="s">
+        <v>569</v>
+      </c>
+      <c r="G144" s="3">
+        <v>12.23</v>
+      </c>
+      <c r="H144" t="s">
+        <v>752</v>
+      </c>
+      <c r="L144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="6"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E145" t="s">
+        <v>569</v>
+      </c>
+      <c r="G145" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="H145" t="s">
+        <v>752</v>
+      </c>
+      <c r="L145" s="4"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="6"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E146" t="s">
+        <v>569</v>
+      </c>
+      <c r="G146" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H146" t="s">
+        <v>752</v>
+      </c>
+      <c r="L146" s="4"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="6"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E147" t="s">
+        <v>568</v>
+      </c>
+      <c r="G147" s="4">
+        <v>58.1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E148" t="s">
+        <v>568</v>
+      </c>
+      <c r="G148" s="4">
+        <v>57.8</v>
+      </c>
+      <c r="H148" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" t="s">
+        <v>568</v>
+      </c>
+      <c r="G149" s="4">
+        <v>56.7</v>
+      </c>
+      <c r="H149" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E150" t="s">
+        <v>568</v>
+      </c>
+      <c r="G150" s="4">
+        <v>55.9</v>
+      </c>
+      <c r="H150" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E151" t="s">
+        <v>568</v>
+      </c>
+      <c r="G151" s="4">
+        <v>55.7</v>
+      </c>
+      <c r="H151" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E152" t="s">
+        <v>568</v>
+      </c>
+      <c r="G152" s="4">
+        <v>54.4</v>
+      </c>
+      <c r="H152" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E153" t="s">
+        <v>568</v>
+      </c>
+      <c r="G153" s="4">
+        <v>53.4</v>
+      </c>
+      <c r="H153" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E154" t="s">
+        <v>568</v>
+      </c>
+      <c r="G154" s="4">
+        <v>53.8</v>
+      </c>
+      <c r="H154" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E155" t="s">
+        <v>568</v>
+      </c>
+      <c r="G155" s="4">
+        <v>52.3</v>
+      </c>
+      <c r="H155" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E156" t="s">
+        <v>568</v>
+      </c>
+      <c r="G156" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="H156" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E157" t="s">
+        <v>568</v>
+      </c>
+      <c r="G157" s="4">
+        <v>52</v>
+      </c>
+      <c r="H157" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E158" t="s">
+        <v>568</v>
+      </c>
+      <c r="G158" s="4">
+        <v>52.2</v>
+      </c>
+      <c r="H158" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E159" t="s">
+        <v>568</v>
+      </c>
+      <c r="G159" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="H159" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E160" t="s">
+        <v>568</v>
+      </c>
+      <c r="G160" s="4">
+        <v>50.6</v>
+      </c>
+      <c r="H160" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E161" t="s">
+        <v>568</v>
+      </c>
+      <c r="G161" s="4">
+        <v>49.4</v>
+      </c>
+      <c r="H161" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E162" t="s">
+        <v>568</v>
+      </c>
+      <c r="G162" s="4">
+        <v>49</v>
+      </c>
+      <c r="H162" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E163" t="s">
+        <v>568</v>
+      </c>
+      <c r="G163" s="4">
+        <v>47.3</v>
+      </c>
+      <c r="H163" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E164" t="s">
+        <v>568</v>
+      </c>
+      <c r="G164" s="4">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E165" t="s">
+        <v>568</v>
+      </c>
+      <c r="G165" s="4">
+        <v>45</v>
+      </c>
+      <c r="H165" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E166" t="s">
+        <v>568</v>
+      </c>
+      <c r="G166" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="H166" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D167" t="s">
+        <v>755</v>
+      </c>
+      <c r="E167" t="s">
+        <v>568</v>
+      </c>
+      <c r="G167" s="4">
+        <v>45.2</v>
+      </c>
+      <c r="H167" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E168" t="s">
+        <v>568</v>
+      </c>
+      <c r="G168" s="4">
+        <v>44.2</v>
+      </c>
+      <c r="H168" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E169" t="s">
+        <v>568</v>
+      </c>
+      <c r="G169" s="4">
+        <v>43.3</v>
+      </c>
+      <c r="H169" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E170" t="s">
+        <v>568</v>
+      </c>
+      <c r="G170" s="4">
+        <v>42.4</v>
+      </c>
+      <c r="H170" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E171" t="s">
+        <v>568</v>
+      </c>
+      <c r="G171" s="4">
+        <v>42.2</v>
+      </c>
+      <c r="H171" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C172" s="5">
+        <v>770456</v>
+      </c>
+      <c r="E172" t="s">
+        <v>568</v>
+      </c>
+      <c r="G172" s="4">
+        <v>41.1</v>
+      </c>
+      <c r="H172" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E173" t="s">
+        <v>568</v>
+      </c>
+      <c r="G173" s="4">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="H173" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E174" t="s">
+        <v>568</v>
+      </c>
+      <c r="G174" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="H174" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E175" t="s">
+        <v>568</v>
+      </c>
+      <c r="G175" s="4">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H175" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D176" t="s">
+        <v>754</v>
+      </c>
+      <c r="E176" t="s">
+        <v>568</v>
+      </c>
+      <c r="G176" s="4">
+        <v>40.6</v>
+      </c>
+      <c r="H176" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E177" t="s">
+        <v>568</v>
+      </c>
+      <c r="G177" s="4">
+        <v>39</v>
+      </c>
+      <c r="H177" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E178" t="s">
+        <v>568</v>
+      </c>
+      <c r="G178" s="4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H178" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E179" t="s">
+        <v>568</v>
+      </c>
+      <c r="G179" s="4">
+        <v>38</v>
+      </c>
+      <c r="H179" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E180" t="s">
+        <v>568</v>
+      </c>
+      <c r="G180" s="4">
+        <v>31.7</v>
+      </c>
+      <c r="H180" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E181" t="s">
+        <v>568</v>
+      </c>
+      <c r="G181" s="4">
+        <v>38.4</v>
+      </c>
+      <c r="H181" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E182" t="s">
+        <v>568</v>
+      </c>
+      <c r="G182" s="4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="H182" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E183" t="s">
+        <v>568</v>
+      </c>
+      <c r="G183" s="4">
+        <v>37.1</v>
+      </c>
+      <c r="H183" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E184" t="s">
+        <v>568</v>
+      </c>
+      <c r="G184" s="4">
+        <v>37.1</v>
+      </c>
+      <c r="H184" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E185" t="s">
+        <v>568</v>
+      </c>
+      <c r="G185" s="4">
+        <v>36</v>
+      </c>
+      <c r="H185" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E186" t="s">
+        <v>568</v>
+      </c>
+      <c r="G186" s="4">
+        <v>38</v>
+      </c>
+      <c r="H186" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E187" t="s">
+        <v>568</v>
+      </c>
+      <c r="G187" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="H187" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D188" t="s">
+        <v>753</v>
+      </c>
+      <c r="E188" t="s">
+        <v>568</v>
+      </c>
+      <c r="G188" s="4">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H188" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E189" t="s">
+        <v>568</v>
+      </c>
+      <c r="G189" s="4">
+        <v>47.8</v>
+      </c>
+      <c r="H189" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E190" t="s">
+        <v>568</v>
+      </c>
+      <c r="G190" s="4">
+        <v>46.3</v>
+      </c>
+      <c r="H190" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E191" t="s">
+        <v>568</v>
+      </c>
+      <c r="G191" s="4">
+        <v>46.1</v>
+      </c>
+      <c r="H191" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E192" t="s">
+        <v>568</v>
+      </c>
+      <c r="G192" s="4">
+        <v>45.2</v>
+      </c>
+      <c r="H192" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E193" t="s">
+        <v>568</v>
+      </c>
+      <c r="G193" s="4">
+        <v>44.1</v>
+      </c>
+      <c r="H193" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E194" t="s">
+        <v>568</v>
+      </c>
+      <c r="G194" s="4">
+        <v>43.6</v>
+      </c>
+      <c r="H194" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E195" t="s">
+        <v>568</v>
+      </c>
+      <c r="G195" s="4">
+        <v>42.8</v>
+      </c>
+      <c r="H195" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E196" t="s">
+        <v>568</v>
+      </c>
+      <c r="G196" s="4">
+        <v>40.4</v>
+      </c>
+      <c r="H196" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E197" t="s">
+        <v>568</v>
+      </c>
+      <c r="G197" s="4">
+        <v>38.6</v>
+      </c>
+      <c r="H197" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E198" t="s">
+        <v>568</v>
+      </c>
+      <c r="G198" s="4">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H198" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E199" t="s">
+        <v>568</v>
+      </c>
+      <c r="G199" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="H199" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E200" t="s">
+        <v>568</v>
+      </c>
+      <c r="G200" s="4">
+        <v>36.4</v>
+      </c>
+      <c r="H200" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E201" t="s">
+        <v>568</v>
+      </c>
+      <c r="G201" s="4">
+        <v>36.1</v>
+      </c>
+      <c r="H201" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E202" t="s">
+        <v>568</v>
+      </c>
+      <c r="G202" s="4">
+        <v>36.1</v>
+      </c>
+      <c r="H202" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E203" t="s">
+        <v>568</v>
+      </c>
+      <c r="G203" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="H203" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E204" t="s">
+        <v>568</v>
+      </c>
+      <c r="G204" s="4">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H204" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E205" t="s">
+        <v>568</v>
+      </c>
+      <c r="G205" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="H205" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E206" t="s">
+        <v>568</v>
+      </c>
+      <c r="G206" s="4">
+        <v>35</v>
+      </c>
+      <c r="H206" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E207" t="s">
+        <v>568</v>
+      </c>
+      <c r="G207" s="4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="H207" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E208" t="s">
+        <v>568</v>
+      </c>
+      <c r="G208" s="4">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="H208" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E209" t="s">
+        <v>568</v>
+      </c>
+      <c r="G209" s="4">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="H209" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E210" t="s">
+        <v>568</v>
+      </c>
+      <c r="G210" s="4">
+        <v>33.6</v>
+      </c>
+      <c r="H210" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E211" t="s">
+        <v>568</v>
+      </c>
+      <c r="G211" s="4">
+        <v>33.5</v>
+      </c>
+      <c r="H211" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E212" t="s">
+        <v>568</v>
+      </c>
+      <c r="G212" s="4">
+        <v>33.6</v>
+      </c>
+      <c r="H212" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E213" t="s">
+        <v>568</v>
+      </c>
+      <c r="G213" s="4">
+        <v>33.5</v>
+      </c>
+      <c r="H213" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E214" t="s">
+        <v>568</v>
+      </c>
+      <c r="G214" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="H214" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E215" t="s">
+        <v>568</v>
+      </c>
+      <c r="G215" s="4">
+        <v>33.5</v>
+      </c>
+      <c r="H215" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E216" t="s">
+        <v>568</v>
+      </c>
+      <c r="G216" s="4">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="H216" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E217" t="s">
+        <v>568</v>
+      </c>
+      <c r="G217" s="4">
+        <v>33</v>
+      </c>
+      <c r="H217" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E218" t="s">
+        <v>568</v>
+      </c>
+      <c r="G218" s="4">
+        <v>33</v>
+      </c>
+      <c r="H218" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E219" t="s">
+        <v>568</v>
+      </c>
+      <c r="G219" s="4">
+        <v>33</v>
+      </c>
+      <c r="H219" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E220" t="s">
+        <v>568</v>
+      </c>
+      <c r="G220" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="H220" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E221" t="s">
+        <v>568</v>
+      </c>
+      <c r="G221" s="4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H221" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E222" t="s">
+        <v>568</v>
+      </c>
+      <c r="G222" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="H222" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E223" t="s">
+        <v>568</v>
+      </c>
+      <c r="G223" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="H223" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E224" t="s">
+        <v>568</v>
+      </c>
+      <c r="G224" s="4">
+        <v>32.6</v>
+      </c>
+      <c r="H224" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E225" t="s">
+        <v>568</v>
+      </c>
+      <c r="G225" s="4">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H225" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E226" t="s">
+        <v>568</v>
+      </c>
+      <c r="G226" s="4">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H226" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E227" t="s">
+        <v>568</v>
+      </c>
+      <c r="G227" s="4">
+        <v>31.9</v>
+      </c>
+      <c r="H227" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E228" t="s">
+        <v>568</v>
+      </c>
+      <c r="G228" s="4">
+        <v>31.7</v>
+      </c>
+      <c r="H228" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E229" t="s">
+        <v>568</v>
+      </c>
+      <c r="G229" s="4">
+        <v>31.4</v>
+      </c>
+      <c r="H229" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E230" t="s">
+        <v>568</v>
+      </c>
+      <c r="G230" s="4">
+        <v>30</v>
+      </c>
+      <c r="H230" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E231" t="s">
+        <v>568</v>
+      </c>
+      <c r="G231" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="H231" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E232" t="s">
+        <v>568</v>
+      </c>
+      <c r="G232" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="H232" t="s">
+        <v>752</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://pubchem.ncbi.nlm.nih.gov/compound/996" xr:uid="{69EFF50E-DC28-0F43-8BE9-9ED12FB66A00}"/>
+    <hyperlink ref="C6" r:id="rId2" display="https://pubchem.ncbi.nlm.nih.gov/compound/7376" xr:uid="{7AD34335-80F8-3142-9E2F-A6D0408145E5}"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://pubchem.ncbi.nlm.nih.gov/compound/15470461" xr:uid="{6DFB84FA-B464-824F-9DB6-77EAAE21A04D}"/>
+    <hyperlink ref="C9" r:id="rId4" display="https://pubchem.ncbi.nlm.nih.gov/compound/67874" xr:uid="{89582B67-0679-8B43-89EA-E80432134138}"/>
+    <hyperlink ref="C12" r:id="rId5" display="https://pubchem.ncbi.nlm.nih.gov/compound/67958" xr:uid="{21346345-9BED-E747-98DF-25488CFED4C5}"/>
+    <hyperlink ref="C13" r:id="rId6" display="https://pubchem.ncbi.nlm.nih.gov/compound/45075698" xr:uid="{5E5C3F18-41B7-5041-9CCB-DFD34E20594E}"/>
+    <hyperlink ref="C14" r:id="rId7" display="https://pubchem.ncbi.nlm.nih.gov/compound/12571901" xr:uid="{2280F91D-A77B-E049-A17B-66CBCEF162CD}"/>
+    <hyperlink ref="C15" r:id="rId8" display="https://pubchem.ncbi.nlm.nih.gov/compound/12667403" xr:uid="{B56959E8-9E72-A94A-90A7-C9881A38DE3C}"/>
+    <hyperlink ref="C16" r:id="rId9" display="https://pubchem.ncbi.nlm.nih.gov/compound/67680" xr:uid="{3F133B14-7ACB-B045-A9FC-D5A16043DF94}"/>
+    <hyperlink ref="C17" r:id="rId10" display="https://pubchem.ncbi.nlm.nih.gov/compound/232396" xr:uid="{D325515C-8E01-2044-9022-F54CA34E23F5}"/>
+    <hyperlink ref="C18" r:id="rId11" display="https://pubchem.ncbi.nlm.nih.gov/compound/176" xr:uid="{FDABDE96-7D12-5844-B1EA-2CA9DE4D7D1C}"/>
+    <hyperlink ref="C19" r:id="rId12" display="https://pubchem.ncbi.nlm.nih.gov/compound/11131191" xr:uid="{BDDE4B2B-5ADD-2D4D-973D-A46A01789DA0}"/>
+    <hyperlink ref="C20" r:id="rId13" display="https://pubchem.ncbi.nlm.nih.gov/compound/6947" xr:uid="{0F4FF301-8BB1-794A-AC02-AAE049E0F5E4}"/>
+    <hyperlink ref="C22" r:id="rId14" display="https://pubchem.ncbi.nlm.nih.gov/compound/444795" xr:uid="{E2A988FA-28ED-1249-B352-66F1622B9E54}"/>
+    <hyperlink ref="C24" r:id="rId15" display="https://pubchem.ncbi.nlm.nih.gov/compound/22625255" xr:uid="{1D9D3861-5BDE-E846-BE5C-34F82ABBA5CA}"/>
+    <hyperlink ref="C26" r:id="rId16" display="https://pubchem.ncbi.nlm.nih.gov/compound/243" xr:uid="{D359F379-CEF2-5B4B-BC83-E00F1A5ED171}"/>
+    <hyperlink ref="C27" r:id="rId17" display="https://pubchem.ncbi.nlm.nih.gov/compound/73721" xr:uid="{688C3654-AF5E-864E-B19F-E5DE1A0791CE}"/>
+    <hyperlink ref="C30" r:id="rId18" display="https://pubchem.ncbi.nlm.nih.gov/compound/16924" xr:uid="{00564C49-2189-E047-9129-75F46B3C23B3}"/>
+    <hyperlink ref="C32" r:id="rId19" display="https://pubchem.ncbi.nlm.nih.gov/compound/1483" xr:uid="{6C059A32-3D57-684F-B9E3-3EDCF023DEF9}"/>
+    <hyperlink ref="C34" r:id="rId20" display="https://pubchem.ncbi.nlm.nih.gov/compound/69858" xr:uid="{3690F3E2-FE78-0B4F-80F3-06D5ED304B6A}"/>
+    <hyperlink ref="C35" r:id="rId21" display="https://pubchem.ncbi.nlm.nih.gov/compound/13041" xr:uid="{5B06C3B1-D541-5C4B-93A2-44D5FED7C055}"/>
+    <hyperlink ref="C37" r:id="rId22" display="https://pubchem.ncbi.nlm.nih.gov/compound/1901067" xr:uid="{360F4EE2-1561-4942-B1CF-FCD692AEF968}"/>
+    <hyperlink ref="C40" r:id="rId23" display="https://pubchem.ncbi.nlm.nih.gov/compound/11670108" xr:uid="{2EC1CD32-A5A5-2F4F-831C-5ECA6A7DF61E}"/>
+    <hyperlink ref="C41" r:id="rId24" display="https://pubchem.ncbi.nlm.nih.gov/compound/2724940" xr:uid="{803B9D5C-7643-2540-A148-5C1451031E24}"/>
+    <hyperlink ref="C44" r:id="rId25" display="https://pubchem.ncbi.nlm.nih.gov/compound/2783336" xr:uid="{B21A44AD-C20A-E640-ACA5-1759C1B2EE16}"/>
+    <hyperlink ref="C46" r:id="rId26" display="https://pubchem.ncbi.nlm.nih.gov/compound/992" xr:uid="{3C9965C8-3BD3-DB48-9315-587C6E89F334}"/>
+    <hyperlink ref="C47" r:id="rId27" display="https://pubchem.ncbi.nlm.nih.gov/compound/11852" xr:uid="{43128B64-FBD3-E84D-92A3-427A89B4C407}"/>
+    <hyperlink ref="C48" r:id="rId28" display="https://pubchem.ncbi.nlm.nih.gov/compound/13902672" xr:uid="{0BF6BD60-6D5C-0243-814E-1AFF5F4A8FC4}"/>
+    <hyperlink ref="C49" r:id="rId29" display="https://pubchem.ncbi.nlm.nih.gov/compound/10313233" xr:uid="{DE1A1378-8948-574D-BBC8-9B30A0220E29}"/>
+    <hyperlink ref="C52" r:id="rId30" display="https://pubchem.ncbi.nlm.nih.gov/compound/1493" xr:uid="{9ED83228-C337-4C44-90CA-538CF881D888}"/>
+    <hyperlink ref="C53" r:id="rId31" display="https://pubchem.ncbi.nlm.nih.gov/compound/2776810" xr:uid="{EC63227C-159C-EE4F-BB43-04EB9183D667}"/>
+    <hyperlink ref="C56" r:id="rId32" display="https://pubchem.ncbi.nlm.nih.gov/compound/283381" xr:uid="{26455726-D16B-9C4E-9BCC-E566EE8D6803}"/>
+    <hyperlink ref="C58" r:id="rId33" display="https://pubchem.ncbi.nlm.nih.gov/compound/12127311" xr:uid="{D51551A5-7C2F-7C47-8679-B5F528B840F8}"/>
+    <hyperlink ref="C60" r:id="rId34" display="https://pubchem.ncbi.nlm.nih.gov/compound/16037854" xr:uid="{679E6A4C-EFC7-8A45-A035-39826A09FEDF}"/>
+    <hyperlink ref="C61" r:id="rId35" display="https://pubchem.ncbi.nlm.nih.gov/compound/5143" xr:uid="{1EDAA94C-D9B7-0045-8626-69072FE9AB7F}"/>
+    <hyperlink ref="C65" r:id="rId36" display="https://pubchem.ncbi.nlm.nih.gov/compound/11498681" xr:uid="{5944E57B-A715-F64A-AA6B-DF21FFF4C904}"/>
+    <hyperlink ref="C66" r:id="rId37" display="https://pubchem.ncbi.nlm.nih.gov/compound/3561514" xr:uid="{F252D25B-377B-A74B-8109-9DE6C8DA0EE8}"/>
+    <hyperlink ref="C68" r:id="rId38" display="https://pubchem.ncbi.nlm.nih.gov/compound/11693293" xr:uid="{445AD2FB-34F5-DE4E-9A2E-B7D3394EAD7E}"/>
+    <hyperlink ref="C69" r:id="rId39" display="https://pubchem.ncbi.nlm.nih.gov/compound/71404552" xr:uid="{F1F7499F-4ED1-1441-94E0-7457848605B4}"/>
+    <hyperlink ref="C71" r:id="rId40" display="https://pubchem.ncbi.nlm.nih.gov/compound/12151052" xr:uid="{C5769FAC-6FA9-F943-9853-C93D6A9ECC27}"/>
+    <hyperlink ref="C73" r:id="rId41" display="https://pubchem.ncbi.nlm.nih.gov/compound/77279" xr:uid="{3F0CD3A5-A297-344E-8FE4-0D80FC4CFC01}"/>
+    <hyperlink ref="C74" r:id="rId42" display="https://pubchem.ncbi.nlm.nih.gov/compound/258301" xr:uid="{05204D87-B9BE-3A47-9810-100D3DFB327F}"/>
+    <hyperlink ref="C75" r:id="rId43" display="https://pubchem.ncbi.nlm.nih.gov/compound/85803784" xr:uid="{885AEE7F-B7C4-714D-BAD0-F3E68EF04C0B}"/>
+    <hyperlink ref="C76" r:id="rId44" display="https://pubchem.ncbi.nlm.nih.gov/compound/12174833" xr:uid="{4003F725-F81D-2749-9DFC-7DEAFB65038F}"/>
+    <hyperlink ref="C77" r:id="rId45" display="https://pubchem.ncbi.nlm.nih.gov/compound/75671" xr:uid="{5053D499-5ED7-EF4E-8A68-01475EF662A0}"/>
+    <hyperlink ref="C79" r:id="rId46" display="https://pubchem.ncbi.nlm.nih.gov/compound/12023043" xr:uid="{09BD7086-37B7-844B-83B0-A203D09EB4AF}"/>
+    <hyperlink ref="C80" r:id="rId47" display="https://pubchem.ncbi.nlm.nih.gov/compound/6954" xr:uid="{C27CAF0C-876C-A04A-A76E-E4D7F0BA99B5}"/>
+    <hyperlink ref="C81" r:id="rId48" display="https://pubchem.ncbi.nlm.nih.gov/compound/12023044" xr:uid="{769176AE-056A-1746-A7C0-313DD4681C88}"/>
+    <hyperlink ref="C82" r:id="rId49" display="https://pubchem.ncbi.nlm.nih.gov/compound/2760308" xr:uid="{067BAA7C-BEAB-6E47-9B1E-04F6A05D4022}"/>
+    <hyperlink ref="C84" r:id="rId50" display="https://pubchem.ncbi.nlm.nih.gov/compound/85803783" xr:uid="{788BBDF1-71D9-F04E-A85D-E2A316D2933A}"/>
+    <hyperlink ref="C85" r:id="rId51" display="https://pubchem.ncbi.nlm.nih.gov/compound/313" xr:uid="{1B407D59-2E43-EE4D-B098-61DD19C513EF}"/>
+    <hyperlink ref="C86" r:id="rId52" display="https://pubchem.ncbi.nlm.nih.gov/compound/249594" xr:uid="{17287E07-BC15-1A48-924D-614288DCEB8F}"/>
+    <hyperlink ref="C87" r:id="rId53" display="https://pubchem.ncbi.nlm.nih.gov/compound/283338" xr:uid="{74863397-4D79-7446-A0A3-99B0D04C0E31}"/>
+    <hyperlink ref="C91" r:id="rId54" display="https://pubchem.ncbi.nlm.nih.gov/compound/71360437" xr:uid="{47BCAEC0-4BD3-E844-8048-E7354011AF7F}"/>
+    <hyperlink ref="C92" r:id="rId55" display="https://pubchem.ncbi.nlm.nih.gov/compound/121002672" xr:uid="{DEEFB6DD-8469-F24F-BCC8-FB42A5C4D53D}"/>
+    <hyperlink ref="C95" r:id="rId56" display="https://pubchem.ncbi.nlm.nih.gov/compound/6101" xr:uid="{06FFA8EC-D132-BC4D-8282-68215339EDFC}"/>
+    <hyperlink ref="C96" r:id="rId57" display="https://pubchem.ncbi.nlm.nih.gov/compound/12651400" xr:uid="{ED12DD28-5FB2-E347-A43F-7FBDA6ABB351}"/>
+    <hyperlink ref="C98" r:id="rId58" display="https://pubchem.ncbi.nlm.nih.gov/compound/57937965" xr:uid="{530F3824-6A41-B248-A15C-CB29AAA1F818}"/>
+    <hyperlink ref="C100" r:id="rId59" display="https://pubchem.ncbi.nlm.nih.gov/compound/6812" xr:uid="{9010F6CC-23E2-9544-905D-0B8EEF667B7A}"/>
+    <hyperlink ref="C102" r:id="rId60" display="https://pubchem.ncbi.nlm.nih.gov/compound/162441" xr:uid="{A367E5CF-E9C7-9C49-8D22-B9A27AD295E5}"/>
+    <hyperlink ref="C105" r:id="rId61" display="https://pubchem.ncbi.nlm.nih.gov/compound/7400" xr:uid="{15297680-FBBD-2C48-87E9-5596D83FC252}"/>
+    <hyperlink ref="C112" r:id="rId62" display="https://pubchem.ncbi.nlm.nih.gov/compound/7387" xr:uid="{4B6BA188-7A4A-F34D-B242-4A6A1CDD1949}"/>
+    <hyperlink ref="C117" r:id="rId63" display="https://pubchem.ncbi.nlm.nih.gov/compound/8740" xr:uid="{B842D364-71D9-4B44-A808-70D22E0B5830}"/>
+    <hyperlink ref="C127" r:id="rId64" display="https://pubchem.ncbi.nlm.nih.gov/compound/260" xr:uid="{E2969F38-66B0-ED43-B610-D72628DA28E9}"/>
+    <hyperlink ref="C136" r:id="rId65" display="https://pubchem.ncbi.nlm.nih.gov/compound/12743458" xr:uid="{30C79F7A-8CBE-3F46-92B0-367C206C56F6}"/>
+    <hyperlink ref="C137" r:id="rId66" display="https://pubchem.ncbi.nlm.nih.gov/compound/12951137" xr:uid="{50DB3E4A-10D3-A049-88C6-C06CF08C814B}"/>
+    <hyperlink ref="C140" r:id="rId67" display="https://pubchem.ncbi.nlm.nih.gov/compound/6959" xr:uid="{97F94BEA-D925-DC48-B581-B4FA04F622B9}"/>
+    <hyperlink ref="C143" r:id="rId68" display="https://pubchem.ncbi.nlm.nih.gov/compound/24841" xr:uid="{2817B62C-F741-AE44-9454-936B1C376BBB}"/>
+    <hyperlink ref="C144" r:id="rId69" display="https://pubchem.ncbi.nlm.nih.gov/compound/23264896" xr:uid="{3A017F92-2A44-AD4F-B6D2-1BEED58493FD}"/>
+    <hyperlink ref="G2" r:id="rId70" display="https://dx.doi.org/10.1021/jo702513w" xr:uid="{69F6E57C-6C03-6947-BFD7-D4F33F9E1DD8}"/>
+    <hyperlink ref="G3" r:id="rId71" display="https://dx.doi.org/10.1021/jo702513w" xr:uid="{5D3046C5-3B1D-8A48-9101-0361C7B2154D}"/>
+    <hyperlink ref="G4" r:id="rId72" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{B69F76D6-91EB-8A40-B7C1-12B109DB0083}"/>
+    <hyperlink ref="G5" r:id="rId73" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{75026C51-A404-CC46-8489-2448B12D2FC1}"/>
+    <hyperlink ref="G6" r:id="rId74" display="https://dx.doi.org/10.1021/jo702513w" xr:uid="{1CCFD1D1-01CC-7243-886D-AD863954DE04}"/>
+    <hyperlink ref="G7" r:id="rId75" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{5998C848-781B-D740-8ACE-BB2E09DE08E7}"/>
+    <hyperlink ref="G8" r:id="rId76" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{E1B6308D-44C3-DF46-B217-26EFEA06BF10}"/>
+    <hyperlink ref="G9" r:id="rId77" display="https://dx.doi.org/10.1021/jo702513w" xr:uid="{C8C0B434-F05D-E94F-B71D-F5A7F44F6DEF}"/>
+    <hyperlink ref="G10" r:id="rId78" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{4E86EC84-8D21-0B4E-8C16-3B2C18DE354F}"/>
+    <hyperlink ref="G11" r:id="rId79" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{3037E679-D247-7F42-9906-295C195788DB}"/>
+    <hyperlink ref="G12" r:id="rId80" display="https://dx.doi.org/10.1021/jo702513w" xr:uid="{064E44D5-AC8E-CE42-90BE-635C48DFD731}"/>
+    <hyperlink ref="G13" r:id="rId81" display="https://dx.doi.org/10.1021/jo702513w" xr:uid="{14F924F3-90A1-F840-9129-B78F2DEDFF73}"/>
+    <hyperlink ref="G14" r:id="rId82" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{331D0238-A55B-424A-8D85-2D0DFE993959}"/>
+    <hyperlink ref="G15" r:id="rId83" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{37F113DB-30D2-B347-9F33-CFF4F458429D}"/>
+    <hyperlink ref="G16" r:id="rId84" display="https://dx.doi.org/10.1021/jo702513w" xr:uid="{5C393C1F-188E-D745-BFAB-EEB66E9572C2}"/>
+    <hyperlink ref="G17" r:id="rId85" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{0F42284A-EC0F-0C44-BA68-64E08E040F53}"/>
+    <hyperlink ref="G18" r:id="rId86" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{0D77C272-B0BE-CD4E-BAC9-B388F2D4E7BB}"/>
+    <hyperlink ref="G19" r:id="rId87" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{2CD94C96-2833-A544-9048-622D3DA7B687}"/>
+    <hyperlink ref="G20" r:id="rId88" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{873AE1CA-9F34-3545-987C-DC37A47DFE62}"/>
+    <hyperlink ref="G21" r:id="rId89" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{54C5A034-82D7-ED45-A56E-F4321D300A5C}"/>
+    <hyperlink ref="G22" r:id="rId90" display="https://dx.doi.org/10.1039/C7SC01424D" xr:uid="{3A82E472-C7EA-2042-ABEA-D399BD2EEFC0}"/>
+    <hyperlink ref="G23" r:id="rId91" display="https://dx.doi.org/10.1039/C0CP02596H" xr:uid="{77CEB13A-7E5F-2242-886D-77C2050B8879}"/>
+    <hyperlink ref="G24" r:id="rId92" display="https://dx.doi.org/10.1039/C0CP02596H" xr:uid="{826BD061-7E14-E041-A75B-882B3682E01D}"/>
+    <hyperlink ref="G25" r:id="rId93" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{915721FE-400B-EB4C-9F52-C7C44C6A5DB1}"/>
+    <hyperlink ref="G26" r:id="rId94" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{A848D179-B788-1B4B-AF28-8F95715B204F}"/>
+    <hyperlink ref="G27" r:id="rId95" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{CC6C487F-AD5F-694D-97A1-74522FC089E7}"/>
+    <hyperlink ref="G28" r:id="rId96" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{B891B312-ABEB-D14F-B9A3-E4C50844F898}"/>
+    <hyperlink ref="G29" r:id="rId97" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{A1558036-18C6-2D4E-868A-C9EE7AFED5BD}"/>
+    <hyperlink ref="G30" r:id="rId98" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{3199CDDD-2DAF-644C-BD99-56DA54AE444C}"/>
+    <hyperlink ref="G31" r:id="rId99" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{0B20D965-CB80-D14E-A48C-858656040258}"/>
+    <hyperlink ref="G32" r:id="rId100" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{9419C19E-AA9A-A543-9092-8054FCE3EDCD}"/>
+    <hyperlink ref="G33" r:id="rId101" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{1BBA5003-E084-3147-A2FE-9C496FA912ED}"/>
+    <hyperlink ref="G34" r:id="rId102" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{984F9E84-5324-1B4E-A378-F57FCB208BF7}"/>
+    <hyperlink ref="G35" r:id="rId103" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{6EDA681B-F75F-6646-89CB-1566C3B22E95}"/>
+    <hyperlink ref="G36" r:id="rId104" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{AF1D5C41-9DFB-FA41-BC16-1035D9A100FA}"/>
+    <hyperlink ref="G37" r:id="rId105" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{D39A5EA1-D594-9746-A03D-DB4BABA4C3E3}"/>
+    <hyperlink ref="G38" r:id="rId106" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{F7039D75-8686-5B41-96EC-15A0D82E8946}"/>
+    <hyperlink ref="G39" r:id="rId107" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{68C1BF2A-43B2-124F-AEBB-CC8A85290227}"/>
+    <hyperlink ref="G40" r:id="rId108" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{2096BE54-FAEB-054B-8E4D-125E5052575F}"/>
+    <hyperlink ref="G41" r:id="rId109" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{4AE6A49E-FD04-634D-9BB8-EF177B0D2D21}"/>
+    <hyperlink ref="G42" r:id="rId110" display="https://dx.doi.org/10.1039/C0CP02596H" xr:uid="{4D392C6C-10FA-9B43-ABF2-3938B1931DA6}"/>
+    <hyperlink ref="G43" r:id="rId111" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{8A25CC72-A6AF-2748-A7EE-37307774C229}"/>
+    <hyperlink ref="G44" r:id="rId112" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{C52A727F-D770-BA48-ADEF-21726660B7F6}"/>
+    <hyperlink ref="G45" r:id="rId113" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{79CE5979-203B-D14B-9C2B-4B8EC5FA4A82}"/>
+    <hyperlink ref="G46" r:id="rId114" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{158A376C-1172-A647-92A5-42A20E9C1EE2}"/>
+    <hyperlink ref="G47" r:id="rId115" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{672C2E0E-3391-4344-8714-8077BE0C282A}"/>
+    <hyperlink ref="G48" r:id="rId116" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{3AC178C5-9C28-F146-AA0C-7871EC15D846}"/>
+    <hyperlink ref="G49" r:id="rId117" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{750B4752-A8A2-B34A-AFAF-B71342782293}"/>
+    <hyperlink ref="G50" r:id="rId118" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{BBB912DF-34CA-FB49-ACAF-136A01AD1F42}"/>
+    <hyperlink ref="G51" r:id="rId119" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{B35A65B2-7E99-684B-A328-13A35AC5AEB4}"/>
+    <hyperlink ref="G52" r:id="rId120" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{58BF11BC-530A-0241-AF11-8D55D8F008B9}"/>
+    <hyperlink ref="G53" r:id="rId121" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{4EF26CB4-55ED-954D-A307-9B44BBD1C22E}"/>
+    <hyperlink ref="G54" r:id="rId122" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{3EFE8FDC-52FB-9341-B219-BD23BD06A408}"/>
+    <hyperlink ref="G55" r:id="rId123" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{8CB4658C-E02B-D245-9862-75B936C43266}"/>
+    <hyperlink ref="G56" r:id="rId124" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{28E6F233-A3F6-2745-AF02-D5B12F7170E7}"/>
+    <hyperlink ref="G57" r:id="rId125" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{D88E8DEB-FB02-1F43-8DBE-60D6767D200D}"/>
+    <hyperlink ref="G58" r:id="rId126" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{1EC2AA7B-1F29-BC43-AB3F-E61E60EA4E9B}"/>
+    <hyperlink ref="G59" r:id="rId127" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{C30C4171-9C04-0D4B-BD06-5F01ED6C0FAA}"/>
+    <hyperlink ref="G60" r:id="rId128" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{00292334-BF70-1745-B66C-2D69EB072A97}"/>
+    <hyperlink ref="G61" r:id="rId129" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{1CE7D8A7-0C2E-6446-B6FC-51986FF49344}"/>
+    <hyperlink ref="G62" r:id="rId130" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{6E986568-D5C9-3544-B146-45175000D891}"/>
+    <hyperlink ref="G63" r:id="rId131" display="https://dx.doi.org/10.1021/jo501769t" xr:uid="{EAFC6AB6-9C88-C740-9F60-FB2C4A3F1143}"/>
+    <hyperlink ref="G64" r:id="rId132" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{7691B69A-E97B-0F44-ACB1-0B1EF1921C2F}"/>
+    <hyperlink ref="G65" r:id="rId133" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{EDF1CD00-2188-CE49-BA97-ABD8E7138E42}"/>
+    <hyperlink ref="G66" r:id="rId134" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{10335AF7-373E-494D-ABEA-14FA3B172F95}"/>
+    <hyperlink ref="G67" r:id="rId135" display="https://dx.doi.org/10.1021/jo501769t" xr:uid="{F2A32BE3-802C-E845-BA66-BB47255C1AE1}"/>
+    <hyperlink ref="G68" r:id="rId136" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{03218F11-E9B5-CA4E-BF31-9FB1CEA31D3D}"/>
+    <hyperlink ref="G69" r:id="rId137" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{F05F3C33-2378-0F4A-A48A-C1A9C3A3BED8}"/>
+    <hyperlink ref="G70" r:id="rId138" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{C6CFD2EA-E690-EF4F-B117-74E6232DAA18}"/>
+    <hyperlink ref="G71" r:id="rId139" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{C319CD33-18E6-8544-BD7B-3006F8E6C911}"/>
+    <hyperlink ref="G72" r:id="rId140" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{40E7ED37-B4CA-6449-9D97-BEBA2751FA0C}"/>
+    <hyperlink ref="G73" r:id="rId141" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{6214C952-2406-E546-B4B6-17B1BB11BF49}"/>
+    <hyperlink ref="G74" r:id="rId142" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{65B59515-3BB4-C842-9731-081220F7A545}"/>
+    <hyperlink ref="G75" r:id="rId143" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{9681FAAE-F300-E843-A8A6-7A61FF6358A6}"/>
+    <hyperlink ref="G76" r:id="rId144" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{168141F6-0C51-3F4B-BF51-9E8A2A08DF2D}"/>
+    <hyperlink ref="G77" r:id="rId145" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{9C4C534F-4E1F-CE4B-8105-2CCA563DB807}"/>
+    <hyperlink ref="G78" r:id="rId146" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{38C3A015-06D1-8C46-9356-E20B5E156E7E}"/>
+    <hyperlink ref="G79" r:id="rId147" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{2E00D975-30E2-6145-BE3B-EE79715D9905}"/>
+    <hyperlink ref="G80" r:id="rId148" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{9E72CC62-A56E-8C4C-A74A-40F9F16A02F6}"/>
+    <hyperlink ref="G81" r:id="rId149" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{7E3605A3-2097-864C-80F6-F571F368EF92}"/>
+    <hyperlink ref="G82" r:id="rId150" display="https://dx.doi.org/10.1021/jo702513w" xr:uid="{5B61FB64-6D2F-1B47-94C0-00B225A428E3}"/>
+    <hyperlink ref="G83" r:id="rId151" display="https://dx.doi.org/10.1021/jo702513w" xr:uid="{2A1B072C-0F7F-9448-9374-F545FB5ED5F4}"/>
+    <hyperlink ref="G84" r:id="rId152" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{D79C1154-DAF7-7D4C-A8AA-16FC5DAD5642}"/>
+    <hyperlink ref="G85" r:id="rId153" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{D2A96A8A-D47E-0046-8CFD-2D81569108C6}"/>
+    <hyperlink ref="G86" r:id="rId154" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{E03207F2-DF45-AF4F-BABF-8AF41C30AACE}"/>
+    <hyperlink ref="G87" r:id="rId155" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{46D7D3C2-7857-D549-A6F4-1DE45A0A73C2}"/>
+    <hyperlink ref="G88" r:id="rId156" display="https://dx.doi.org/10.1021/jp903780k" xr:uid="{4B33D020-ACC0-DF4A-8D7A-CE098F85469F}"/>
+    <hyperlink ref="G89" r:id="rId157" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{8FED64A3-0E36-974E-BAB9-B194806C859A}"/>
+    <hyperlink ref="G90" r:id="rId158" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{E93E202B-C140-734E-ABE8-A3C2D4A0A07B}"/>
+    <hyperlink ref="G91" r:id="rId159" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{D742FE65-C98E-8441-AC4A-A16D79BF03EC}"/>
+    <hyperlink ref="G92" r:id="rId160" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{33F2AF11-8F1E-DB46-B62C-4D3CA964D2B8}"/>
+    <hyperlink ref="G93" r:id="rId161" display="https://dx.doi.org/10.1021/jo702513w" xr:uid="{F571CAE2-6E8E-B048-9FC6-C8C6869D9EB1}"/>
+    <hyperlink ref="G94" r:id="rId162" display="https://dx.doi.org/10.1021/jp903780k" xr:uid="{59C5CEA5-F300-DC47-A0A2-C0E463A3A578}"/>
+    <hyperlink ref="G95" r:id="rId163" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{56A14A29-3B07-F242-8963-F9537981FA85}"/>
+    <hyperlink ref="G96" r:id="rId164" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{584F1EFE-B9BA-724C-85FD-2C878B7EBE4D}"/>
+    <hyperlink ref="G97" r:id="rId165" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{C8EE8CE7-0EE6-044F-AE3C-2F54FBD7DA33}"/>
+    <hyperlink ref="G98" r:id="rId166" display="https://dx.doi.org/10.1021/jp903780k" xr:uid="{42097648-EF11-4649-A243-957B2CD2EC8C}"/>
+    <hyperlink ref="G99" r:id="rId167" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{55CA149F-7879-5041-93B2-A80C0E74BDE9}"/>
+    <hyperlink ref="G100" r:id="rId168" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{1C3D7B0A-8CC4-D143-9B59-72CAA44D5652}"/>
+    <hyperlink ref="G101" r:id="rId169" display="https://dx.doi.org/10.1021/jp903780k" xr:uid="{1EBF288A-FA65-C149-822A-06A9E64AAE10}"/>
+    <hyperlink ref="G102" r:id="rId170" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{6A7E0C51-AE9D-AD49-A8AF-B1238A730FF4}"/>
+    <hyperlink ref="G103" r:id="rId171" display="https://dx.doi.org/10.1021/jp903780k" xr:uid="{20D8BC25-41A4-B045-B9B0-770D6574E490}"/>
+    <hyperlink ref="G104" r:id="rId172" display="https://dx.doi.org/10.1021/jp903780k" xr:uid="{7E5AC0F0-1EA8-A842-876A-B84E8AD0C003}"/>
+    <hyperlink ref="G105" r:id="rId173" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{47E10933-E968-8D45-9284-D868EA746C27}"/>
+    <hyperlink ref="G106" r:id="rId174" display="https://dx.doi.org/10.1021/jo501769t" xr:uid="{593C28B9-11B8-4C41-B1CB-52BF6AA48FEA}"/>
+    <hyperlink ref="G107" r:id="rId175" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{CF64EF29-B901-0B4D-8C49-5AD0CD3993C5}"/>
+    <hyperlink ref="G108" r:id="rId176" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{38C75BE0-02B8-094D-911E-CE40F3F7306D}"/>
+    <hyperlink ref="G109" r:id="rId177" display="https://dx.doi.org/10.1021/jp903780k" xr:uid="{869F7A31-01C5-F243-A1DC-9016E11B1D7D}"/>
+    <hyperlink ref="G110" r:id="rId178" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{4E9B190D-3599-D044-8EC8-9DB7EF6CB60D}"/>
+    <hyperlink ref="G111" r:id="rId179" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{121126FA-3617-8D4F-AF42-7DA3F81E6F0C}"/>
+    <hyperlink ref="G112" r:id="rId180" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{55CCFB55-AA14-4349-9E59-14BAEFB7BA2A}"/>
+    <hyperlink ref="G113" r:id="rId181" display="https://dx.doi.org/10.1021/jp903780k" xr:uid="{25230E19-AFCB-C04E-AD8F-3E74942E5179}"/>
+    <hyperlink ref="G114" r:id="rId182" display="https://dx.doi.org/10.1021/jo501769t" xr:uid="{2FB895F4-7B5E-B743-8E62-FB581C647F16}"/>
+    <hyperlink ref="G115" r:id="rId183" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{493274D2-4A31-EA44-83A1-CE25AB233167}"/>
+    <hyperlink ref="G116" r:id="rId184" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{389BB27C-EDEC-614F-A5AD-8D6423A8A19E}"/>
+    <hyperlink ref="G117" r:id="rId185" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{A30BA655-AF8D-BB47-8E9E-07F67B639EF4}"/>
+    <hyperlink ref="G118" r:id="rId186" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{A800CBDE-BB48-524C-B903-CC6DB9444017}"/>
+    <hyperlink ref="G119" r:id="rId187" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{AD418E87-B490-4642-BA1C-AB3EF1E593C0}"/>
+    <hyperlink ref="G120" r:id="rId188" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{2D29B874-7058-5A44-B168-9FBB6E62B0C0}"/>
+    <hyperlink ref="G121" r:id="rId189" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{0462DF45-824C-724D-9139-7B27B80AD4EA}"/>
+    <hyperlink ref="G122" r:id="rId190" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{14BF73F7-576B-F843-9C2C-4C34935AF9F2}"/>
+    <hyperlink ref="G123" r:id="rId191" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{030E52B1-FCD6-BF45-A393-5B249CF2ED57}"/>
+    <hyperlink ref="G124" r:id="rId192" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{53739549-EA8B-CD4F-A711-6B57A5B70CF2}"/>
+    <hyperlink ref="G125" r:id="rId193" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{CE177AF2-97ED-1648-AF8C-726DF2559AB6}"/>
+    <hyperlink ref="G126" r:id="rId194" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{50176EF2-0919-8F4A-8112-A326BE17E341}"/>
+    <hyperlink ref="G127" r:id="rId195" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{C2D51EAE-B7F6-504D-B1E9-47FA09ECE940}"/>
+    <hyperlink ref="G128" r:id="rId196" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{D7775CB2-2CF8-A54B-BC05-235BA433C348}"/>
+    <hyperlink ref="G129" r:id="rId197" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{59EDEC72-E110-C646-9CAD-6985E2BA7EBD}"/>
+    <hyperlink ref="G130" r:id="rId198" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{1BFE39C9-2284-0445-AC81-D29D77575D84}"/>
+    <hyperlink ref="G131" r:id="rId199" display="https://dx.doi.org/10.1002/anie.201303605" xr:uid="{92B8E20D-954F-4A4F-9479-3B386278FD72}"/>
+    <hyperlink ref="G132" r:id="rId200" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{AB375E52-9363-E640-951E-DE757EC8ECA4}"/>
+    <hyperlink ref="G133" r:id="rId201" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{076110BF-F5D9-9E4E-845B-91A067296445}"/>
+    <hyperlink ref="G134" r:id="rId202" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{0588C2BE-86AD-954A-B751-F6C6A43C80E5}"/>
+    <hyperlink ref="G135" r:id="rId203" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{9CA7C6CB-4523-EE4A-8EBA-17E74810ECEB}"/>
+    <hyperlink ref="G136" r:id="rId204" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{D341B39F-72F4-0C45-B2B2-BCEB6F77012D}"/>
+    <hyperlink ref="G137" r:id="rId205" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{EE9E8928-AA26-E14F-A147-9BFCA98C4EC7}"/>
+    <hyperlink ref="G138" r:id="rId206" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{88B475CC-E1CB-764B-84E3-20EBA14C84A8}"/>
+    <hyperlink ref="G139" r:id="rId207" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{EEE5DBB3-A02C-1746-B6ED-9492EE399961}"/>
+    <hyperlink ref="G140" r:id="rId208" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{5F576B8F-E24B-AC46-8FC3-6AAADEE33F1A}"/>
+    <hyperlink ref="G141" r:id="rId209" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{47EBF14D-B514-C146-B2D8-2F40E1E8045E}"/>
+    <hyperlink ref="G142" r:id="rId210" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{F6739F26-F5FB-3545-888C-7D3E2BF61130}"/>
+    <hyperlink ref="G143" r:id="rId211" display="https://dx.doi.org/10.1021/jo101409p" xr:uid="{8F798797-7786-4B48-9697-E316937B11DB}"/>
+    <hyperlink ref="G144" r:id="rId212" display="https://dx.doi.org/10.1021/jo060031y" xr:uid="{A48F3456-C758-B24D-B374-DA27F162B0CC}"/>
+    <hyperlink ref="G145" r:id="rId213" display="https://dx.doi.org/10.1038/s41557-018-0065-0" xr:uid="{47E6ECB3-0422-F04A-83FA-A2E54E0FD003}"/>
+    <hyperlink ref="G146" r:id="rId214" display="https://dx.doi.org/10.1038/s41557-018-0065-0" xr:uid="{F46A6203-CA48-764C-AC6A-4E07F20F1BD5}"/>
+    <hyperlink ref="C147" r:id="rId215" display="https://pubchem.ncbi.nlm.nih.gov/compound/232396" xr:uid="{833D1BE4-6DC8-244B-AE05-DB1E5109C881}"/>
+    <hyperlink ref="C150" r:id="rId216" display="https://pubchem.ncbi.nlm.nih.gov/compound/73721" xr:uid="{165F3D99-CEF6-DA46-9487-9AF7136C3D98}"/>
+    <hyperlink ref="C154" r:id="rId217" display="https://pubchem.ncbi.nlm.nih.gov/compound/11670108" xr:uid="{405602CC-BB4C-984B-B417-0D10A9F8ACE1}"/>
+    <hyperlink ref="C156" r:id="rId218" display="https://pubchem.ncbi.nlm.nih.gov/compound/13902672" xr:uid="{1A20F9F6-BD08-0D42-AE3F-92842643466D}"/>
+    <hyperlink ref="C160" r:id="rId219" display="https://pubchem.ncbi.nlm.nih.gov/compound/283381" xr:uid="{AF11F3F1-DB19-BF4E-B4D6-BED452176A45}"/>
+    <hyperlink ref="C162" r:id="rId220" display="https://pubchem.ncbi.nlm.nih.gov/compound/16037854" xr:uid="{CB82895D-F0EC-8045-8673-BE1501A65AEF}"/>
+    <hyperlink ref="C163" r:id="rId221" display="https://pubchem.ncbi.nlm.nih.gov/compound/3561514" xr:uid="{2003F56C-8BE1-AC42-B714-A076BBC7603A}"/>
+    <hyperlink ref="C165" r:id="rId222" display="https://pubchem.ncbi.nlm.nih.gov/compound/6954" xr:uid="{E3E11B4B-0498-FC4C-B5C9-593DA4C56126}"/>
+    <hyperlink ref="C167" r:id="rId223" display="https://pubchem.ncbi.nlm.nih.gov/compound/313" xr:uid="{8DC368B2-3272-B046-9DB8-B6E69F6FE6CB}"/>
+    <hyperlink ref="C168" r:id="rId224" display="https://pubchem.ncbi.nlm.nih.gov/compound/283338" xr:uid="{A62E277B-D84D-534E-8948-B0B576EBD121}"/>
+    <hyperlink ref="C170" r:id="rId225" display="https://pubchem.ncbi.nlm.nih.gov/compound/121002672" xr:uid="{DA54A70F-1F5F-D944-88E6-A7809887A053}"/>
+    <hyperlink ref="C172" r:id="rId226" display="https://pubchem.ncbi.nlm.nih.gov/compound/12651400" xr:uid="{F671D8D1-BBAF-4645-A905-B10ED30C33F0}"/>
+    <hyperlink ref="C176" r:id="rId227" display="https://pubchem.ncbi.nlm.nih.gov/compound/260" xr:uid="{3EA0663D-A97E-D049-BCFB-3E4CDB1C0F11}"/>
+    <hyperlink ref="C181" r:id="rId228" display="https://pubchem.ncbi.nlm.nih.gov/compound/12743458" xr:uid="{D00770F5-C859-874F-97E0-758F283F52F0}"/>
+    <hyperlink ref="C182" r:id="rId229" display="https://pubchem.ncbi.nlm.nih.gov/compound/12951137" xr:uid="{92FF87E9-9147-0545-8D0A-A271F967CD79}"/>
+    <hyperlink ref="C185" r:id="rId230" display="https://pubchem.ncbi.nlm.nih.gov/compound/6959" xr:uid="{19B37B80-15B8-4B47-BF37-52311CDC5B4E}"/>
+    <hyperlink ref="C188" r:id="rId231" display="https://pubchem.ncbi.nlm.nih.gov/compound/24841" xr:uid="{DF6679F4-2BFD-324E-AA01-41F52CF91ED0}"/>
+    <hyperlink ref="C190" r:id="rId232" display="https://pubchem.ncbi.nlm.nih.gov/compound/23264896" xr:uid="{63B7E021-5E3B-ED43-A41E-B8113136BF70}"/>
+    <hyperlink ref="C191" r:id="rId233" display="https://pubchem.ncbi.nlm.nih.gov/compound/6450" xr:uid="{46BBB78A-A9A8-E147-988D-B236BCF14C86}"/>
+    <hyperlink ref="C192" r:id="rId234" display="https://pubchem.ncbi.nlm.nih.gov/compound/6451" xr:uid="{2EA03468-7716-8548-B005-1F20BC2EED2C}"/>
+    <hyperlink ref="C193" r:id="rId235" display="https://pubchem.ncbi.nlm.nih.gov/compound/6721" xr:uid="{D9880D60-48E1-064B-8E84-FA0CA4EA9E27}"/>
+    <hyperlink ref="C194" r:id="rId236" display="https://pubchem.ncbi.nlm.nih.gov/compound/944" xr:uid="{F987DF4C-2F87-8845-92A1-CA23FA7ADF69}"/>
+    <hyperlink ref="C195" r:id="rId237" display="https://pubchem.ncbi.nlm.nih.gov/compound/1118" xr:uid="{CCB93C1E-5D72-4745-B1B9-66705714B11E}"/>
+    <hyperlink ref="C197" r:id="rId238" display="https://pubchem.ncbi.nlm.nih.gov/compound/5232958" xr:uid="{C84C00A4-9A85-6947-8378-8448133096FF}"/>
+    <hyperlink ref="C203" r:id="rId239" display="https://pubchem.ncbi.nlm.nih.gov/compound/10203986" xr:uid="{20CD25A4-7ABE-0749-8AD5-C8B818C68D8F}"/>
+    <hyperlink ref="C206" r:id="rId240" display="https://pubchem.ncbi.nlm.nih.gov/compound/28118" xr:uid="{CED1AAFF-6E22-D344-864C-620EE266EE11}"/>
+    <hyperlink ref="C207" r:id="rId241" display="https://pubchem.ncbi.nlm.nih.gov/compound/24603" xr:uid="{0225448F-7CB8-BE42-83F0-43FB57854F57}"/>
+    <hyperlink ref="C209" r:id="rId242" display="https://pubchem.ncbi.nlm.nih.gov/compound/211183" xr:uid="{3D781A59-B1BE-F244-8FBA-4B3B75578B93}"/>
+    <hyperlink ref="C212" r:id="rId243" display="https://pubchem.ncbi.nlm.nih.gov/compound/11045" xr:uid="{F9F5DD97-4B5A-A641-831F-21ADCDD7033C}"/>
+    <hyperlink ref="C214" r:id="rId244" display="https://pubchem.ncbi.nlm.nih.gov/compound/62406" xr:uid="{D4362968-1165-2342-A725-7BA36317DA88}"/>
+    <hyperlink ref="C217" r:id="rId245" display="https://pubchem.ncbi.nlm.nih.gov/compound/101078809" xr:uid="{575333C8-2D8C-DF45-A96C-814D6DE45773}"/>
+    <hyperlink ref="C219" r:id="rId246" display="https://pubchem.ncbi.nlm.nih.gov/compound/157857" xr:uid="{28040D05-D18B-3940-B978-7001530211AE}"/>
+    <hyperlink ref="C221" r:id="rId247" display="https://pubchem.ncbi.nlm.nih.gov/compound/12167909" xr:uid="{BF36224A-6518-474C-9746-8E3C28692B95}"/>
+    <hyperlink ref="C222" r:id="rId248" display="https://pubchem.ncbi.nlm.nih.gov/compound/10211210" xr:uid="{49D0BC96-7D6F-1140-AE55-254D705F1D53}"/>
+    <hyperlink ref="C223" r:id="rId249" display="https://pubchem.ncbi.nlm.nih.gov/compound/90879993" xr:uid="{7A06D2C1-5118-4F4F-9697-99A0202375CF}"/>
+    <hyperlink ref="C224" r:id="rId250" display="https://pubchem.ncbi.nlm.nih.gov/compound/2779028" xr:uid="{6303784F-F0DA-F24A-A6E8-B32497F51AC3}"/>
+    <hyperlink ref="C226" r:id="rId251" display="https://pubchem.ncbi.nlm.nih.gov/compound/24247" xr:uid="{8E9A67FC-D085-0946-A930-0592015029C3}"/>
+    <hyperlink ref="C227" r:id="rId252" display="https://pubchem.ncbi.nlm.nih.gov/compound/11208600" xr:uid="{DC52C484-6E10-D845-9644-CC258E3A0A98}"/>
+    <hyperlink ref="C229" r:id="rId253" display="https://pubchem.ncbi.nlm.nih.gov/compound/10869061" xr:uid="{F10AD5CA-CF4E-D445-976C-6145E79C3E7E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>